--- a/cypress/downloads/All_data_01.02.2024_-_29.02.2024.xlsx
+++ b/cypress/downloads/All_data_01.02.2024_-_29.02.2024.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="61" xml:space="preserve">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="69" xml:space="preserve">
   <si>
     <t>Casio2 GmbH Test</t>
   </si>
@@ -77,10 +77,19 @@
     <t>01:10</t>
   </si>
   <si>
-    <t>01:11</t>
+    <t>11:01</t>
   </si>
   <si>
     <t>Project A</t>
+  </si>
+  <si>
+    <t>Mariam</t>
+  </si>
+  <si>
+    <t>13:43</t>
+  </si>
+  <si>
+    <t>13:44</t>
   </si>
   <si>
     <t>ABC  DEF</t>
@@ -161,9 +170,6 @@
     <t>ard</t>
   </si>
   <si>
-    <t>Mariam</t>
-  </si>
-  <si>
     <t>Created by Crewmeister</t>
   </si>
   <si>
@@ -174,6 +180,24 @@
   </si>
   <si>
     <t>2nd Time Category</t>
+  </si>
+  <si>
+    <t>01:11</t>
+  </si>
+  <si>
+    <t>01:15</t>
+  </si>
+  <si>
+    <t>01:16</t>
+  </si>
+  <si>
+    <t>01:46</t>
+  </si>
+  <si>
+    <t>01:47</t>
+  </si>
+  <si>
+    <t>07:32</t>
   </si>
   <si>
     <t>Start Date</t>
@@ -1084,7 +1108,7 @@
         <v>5</v>
       </c>
       <c r="N4" s="9" t="n">
-        <v>-17624.58611111111</v>
+        <v>-17621.1075</v>
       </c>
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
@@ -1152,23 +1176,23 @@
         <v>21</v>
       </c>
       <c r="G6" s="14" t="n">
-        <v>0.006944444444444445</v>
+        <v>0.02</v>
       </c>
       <c r="H6" s="14" t="n">
-        <v>0.0025</v>
+        <v>3.4786111111111113</v>
       </c>
       <c r="I6" s="14" t="n">
         <v>0.0</v>
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="14" t="n">
-        <v>0.0025</v>
+        <v>3.4786111111111113</v>
       </c>
       <c r="L6" s="14" t="n">
         <v>1.0</v>
       </c>
       <c r="M6" s="14" t="n">
-        <v>-0.9975</v>
+        <v>2.4786111111111113</v>
       </c>
       <c r="N6" s="22" t="inlineStr">
         <is>
@@ -1183,36 +1207,48 @@
       <c r="B7" s="20">
         <v>45323.0</v>
       </c>
-      <c r="C7" s="18"/>
+      <c r="C7" s="18" t="s">
+        <v>23</v>
+      </c>
       <c r="D7" s="20">
         <v>45323.0</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="15"/>
+      <c r="E7" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="15" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
       <c r="G7" s="16" t="n">
         <v>0.0</v>
       </c>
       <c r="H7" s="16" t="n">
-        <v>0.0</v>
+        <v>0.0025</v>
       </c>
       <c r="I7" s="16" t="n">
         <v>0.0</v>
       </c>
       <c r="J7" s="25"/>
       <c r="K7" s="16" t="n">
-        <v>0.0</v>
+        <v>0.0025</v>
       </c>
       <c r="L7" s="16" t="n">
         <v>1.0</v>
       </c>
       <c r="M7" s="16" t="n">
-        <v>-1.0</v>
-      </c>
-      <c r="N7" s="23"/>
+        <v>-0.9975</v>
+      </c>
+      <c r="N7" s="23" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B8" s="19">
         <v>45323.0</v>
@@ -1246,7 +1282,7 @@
     </row>
     <row r="9">
       <c r="A9" s="15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B9" s="20">
         <v>45323.0</v>
@@ -1280,7 +1316,7 @@
     </row>
     <row r="10">
       <c r="A10" s="13" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B10" s="19">
         <v>45323.0</v>
@@ -1305,16 +1341,16 @@
         <v>0.0</v>
       </c>
       <c r="L10" s="14" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
       <c r="M10" s="14" t="n">
-        <v>-7.0</v>
+        <v>-1.0</v>
       </c>
       <c r="N10" s="22"/>
     </row>
     <row r="11">
       <c r="A11" s="15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B11" s="20">
         <v>45323.0</v>
@@ -1339,16 +1375,16 @@
         <v>0.0</v>
       </c>
       <c r="L11" s="16" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
       <c r="M11" s="16" t="n">
-        <v>-1.0</v>
+        <v>-7.0</v>
       </c>
       <c r="N11" s="23"/>
     </row>
     <row r="12">
       <c r="A12" s="13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B12" s="19">
         <v>45323.0</v>
@@ -1382,7 +1418,7 @@
     </row>
     <row r="13">
       <c r="A13" s="15" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B13" s="20">
         <v>45323.0</v>
@@ -1416,7 +1452,7 @@
     </row>
     <row r="14">
       <c r="A14" s="13" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B14" s="19">
         <v>45323.0</v>
@@ -1450,7 +1486,7 @@
     </row>
     <row r="15">
       <c r="A15" s="15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B15" s="20">
         <v>45323.0</v>
@@ -1484,7 +1520,7 @@
     </row>
     <row r="16">
       <c r="A16" s="13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B16" s="19">
         <v>45323.0</v>
@@ -1518,7 +1554,7 @@
     </row>
     <row r="17">
       <c r="A17" s="15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B17" s="20">
         <v>45323.0</v>
@@ -1552,7 +1588,7 @@
     </row>
     <row r="18">
       <c r="A18" s="13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B18" s="19">
         <v>45323.0</v>
@@ -1586,7 +1622,7 @@
     </row>
     <row r="19">
       <c r="A19" s="15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B19" s="20">
         <v>45323.0</v>
@@ -1620,7 +1656,7 @@
     </row>
     <row r="20">
       <c r="A20" s="13" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B20" s="19">
         <v>45323.0</v>
@@ -1654,7 +1690,7 @@
     </row>
     <row r="21">
       <c r="A21" s="15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B21" s="20">
         <v>45323.0</v>
@@ -1688,7 +1724,7 @@
     </row>
     <row r="22">
       <c r="A22" s="13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B22" s="19">
         <v>45323.0</v>
@@ -1722,7 +1758,7 @@
     </row>
     <row r="23">
       <c r="A23" s="15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B23" s="20">
         <v>45323.0</v>
@@ -1756,7 +1792,7 @@
     </row>
     <row r="24">
       <c r="A24" s="13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B24" s="19">
         <v>45323.0</v>
@@ -1790,7 +1826,7 @@
     </row>
     <row r="25">
       <c r="A25" s="15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B25" s="20">
         <v>45323.0</v>
@@ -1824,7 +1860,7 @@
     </row>
     <row r="26">
       <c r="A26" s="13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B26" s="19">
         <v>45323.0</v>
@@ -1858,7 +1894,7 @@
     </row>
     <row r="27">
       <c r="A27" s="15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B27" s="20">
         <v>45323.0</v>
@@ -1892,7 +1928,7 @@
     </row>
     <row r="28">
       <c r="A28" s="13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B28" s="19">
         <v>45323.0</v>
@@ -1926,7 +1962,7 @@
     </row>
     <row r="29">
       <c r="A29" s="15" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B29" s="20">
         <v>45323.0</v>
@@ -1960,7 +1996,7 @@
     </row>
     <row r="30">
       <c r="A30" s="13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B30" s="19">
         <v>45323.0</v>
@@ -1994,7 +2030,7 @@
     </row>
     <row r="31">
       <c r="A31" s="15" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B31" s="20">
         <v>45323.0</v>
@@ -2028,7 +2064,7 @@
     </row>
     <row r="32">
       <c r="A32" s="13" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B32" s="19">
         <v>45323.0</v>
@@ -2062,7 +2098,7 @@
     </row>
     <row r="33">
       <c r="A33" s="15" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B33" s="20">
         <v>45323.0</v>
@@ -2130,7 +2166,7 @@
     </row>
     <row r="35">
       <c r="A35" s="15" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B35" s="20">
         <v>45324.0</v>
@@ -2164,7 +2200,7 @@
     </row>
     <row r="36">
       <c r="A36" s="13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B36" s="19">
         <v>45324.0</v>
@@ -2198,7 +2234,7 @@
     </row>
     <row r="37">
       <c r="A37" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B37" s="20">
         <v>45324.0</v>
@@ -2232,7 +2268,7 @@
     </row>
     <row r="38">
       <c r="A38" s="13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B38" s="19">
         <v>45324.0</v>
@@ -2266,7 +2302,7 @@
     </row>
     <row r="39">
       <c r="A39" s="15" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B39" s="20">
         <v>45324.0</v>
@@ -2300,7 +2336,7 @@
     </row>
     <row r="40">
       <c r="A40" s="13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B40" s="19">
         <v>45324.0</v>
@@ -2334,7 +2370,7 @@
     </row>
     <row r="41">
       <c r="A41" s="15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B41" s="20">
         <v>45324.0</v>
@@ -2368,7 +2404,7 @@
     </row>
     <row r="42">
       <c r="A42" s="13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B42" s="19">
         <v>45324.0</v>
@@ -2402,7 +2438,7 @@
     </row>
     <row r="43">
       <c r="A43" s="15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B43" s="20">
         <v>45324.0</v>
@@ -2436,7 +2472,7 @@
     </row>
     <row r="44">
       <c r="A44" s="13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B44" s="19">
         <v>45324.0</v>
@@ -2470,7 +2506,7 @@
     </row>
     <row r="45">
       <c r="A45" s="15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B45" s="20">
         <v>45324.0</v>
@@ -2504,7 +2540,7 @@
     </row>
     <row r="46">
       <c r="A46" s="13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B46" s="19">
         <v>45324.0</v>
@@ -2538,7 +2574,7 @@
     </row>
     <row r="47">
       <c r="A47" s="15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B47" s="20">
         <v>45324.0</v>
@@ -2572,7 +2608,7 @@
     </row>
     <row r="48">
       <c r="A48" s="13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B48" s="19">
         <v>45324.0</v>
@@ -2606,7 +2642,7 @@
     </row>
     <row r="49">
       <c r="A49" s="15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B49" s="20">
         <v>45324.0</v>
@@ -2640,7 +2676,7 @@
     </row>
     <row r="50">
       <c r="A50" s="13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B50" s="19">
         <v>45324.0</v>
@@ -2674,7 +2710,7 @@
     </row>
     <row r="51">
       <c r="A51" s="15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B51" s="20">
         <v>45324.0</v>
@@ -2708,7 +2744,7 @@
     </row>
     <row r="52">
       <c r="A52" s="13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B52" s="19">
         <v>45324.0</v>
@@ -2742,7 +2778,7 @@
     </row>
     <row r="53">
       <c r="A53" s="15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B53" s="20">
         <v>45324.0</v>
@@ -2776,7 +2812,7 @@
     </row>
     <row r="54">
       <c r="A54" s="13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B54" s="19">
         <v>45324.0</v>
@@ -2810,7 +2846,7 @@
     </row>
     <row r="55">
       <c r="A55" s="15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B55" s="20">
         <v>45324.0</v>
@@ -2844,7 +2880,7 @@
     </row>
     <row r="56">
       <c r="A56" s="13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B56" s="19">
         <v>45324.0</v>
@@ -2878,7 +2914,7 @@
     </row>
     <row r="57">
       <c r="A57" s="15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B57" s="20">
         <v>45324.0</v>
@@ -2912,7 +2948,7 @@
     </row>
     <row r="58">
       <c r="A58" s="13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B58" s="19">
         <v>45324.0</v>
@@ -2946,7 +2982,7 @@
     </row>
     <row r="59">
       <c r="A59" s="15" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B59" s="20">
         <v>45324.0</v>
@@ -2980,7 +3016,7 @@
     </row>
     <row r="60">
       <c r="A60" s="13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B60" s="19">
         <v>45324.0</v>
@@ -3014,7 +3050,7 @@
     </row>
     <row r="61">
       <c r="A61" s="15" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B61" s="20">
         <v>45324.0</v>
@@ -3082,7 +3118,7 @@
     </row>
     <row r="63">
       <c r="A63" s="15" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B63" s="20">
         <v>45327.0</v>
@@ -3116,7 +3152,7 @@
     </row>
     <row r="64">
       <c r="A64" s="13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B64" s="19">
         <v>45327.0</v>
@@ -3150,7 +3186,7 @@
     </row>
     <row r="65">
       <c r="A65" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B65" s="20">
         <v>45327.0</v>
@@ -3184,7 +3220,7 @@
     </row>
     <row r="66">
       <c r="A66" s="13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B66" s="19">
         <v>45327.0</v>
@@ -3218,7 +3254,7 @@
     </row>
     <row r="67">
       <c r="A67" s="15" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B67" s="20">
         <v>45327.0</v>
@@ -3252,7 +3288,7 @@
     </row>
     <row r="68">
       <c r="A68" s="13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B68" s="19">
         <v>45327.0</v>
@@ -3286,7 +3322,7 @@
     </row>
     <row r="69">
       <c r="A69" s="15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B69" s="20">
         <v>45327.0</v>
@@ -3320,7 +3356,7 @@
     </row>
     <row r="70">
       <c r="A70" s="13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B70" s="19">
         <v>45327.0</v>
@@ -3354,7 +3390,7 @@
     </row>
     <row r="71">
       <c r="A71" s="15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B71" s="20">
         <v>45327.0</v>
@@ -3388,7 +3424,7 @@
     </row>
     <row r="72">
       <c r="A72" s="13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B72" s="19">
         <v>45327.0</v>
@@ -3422,7 +3458,7 @@
     </row>
     <row r="73">
       <c r="A73" s="15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B73" s="20">
         <v>45327.0</v>
@@ -3456,7 +3492,7 @@
     </row>
     <row r="74">
       <c r="A74" s="13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B74" s="19">
         <v>45327.0</v>
@@ -3490,7 +3526,7 @@
     </row>
     <row r="75">
       <c r="A75" s="15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B75" s="20">
         <v>45327.0</v>
@@ -3524,7 +3560,7 @@
     </row>
     <row r="76">
       <c r="A76" s="13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B76" s="19">
         <v>45327.0</v>
@@ -3558,7 +3594,7 @@
     </row>
     <row r="77">
       <c r="A77" s="15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B77" s="20">
         <v>45327.0</v>
@@ -3592,7 +3628,7 @@
     </row>
     <row r="78">
       <c r="A78" s="13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B78" s="19">
         <v>45327.0</v>
@@ -3626,7 +3662,7 @@
     </row>
     <row r="79">
       <c r="A79" s="15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B79" s="20">
         <v>45327.0</v>
@@ -3660,7 +3696,7 @@
     </row>
     <row r="80">
       <c r="A80" s="13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B80" s="19">
         <v>45327.0</v>
@@ -3694,7 +3730,7 @@
     </row>
     <row r="81">
       <c r="A81" s="15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B81" s="20">
         <v>45327.0</v>
@@ -3728,7 +3764,7 @@
     </row>
     <row r="82">
       <c r="A82" s="13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B82" s="19">
         <v>45327.0</v>
@@ -3762,7 +3798,7 @@
     </row>
     <row r="83">
       <c r="A83" s="15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B83" s="20">
         <v>45327.0</v>
@@ -3796,7 +3832,7 @@
     </row>
     <row r="84">
       <c r="A84" s="13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B84" s="19">
         <v>45327.0</v>
@@ -3830,7 +3866,7 @@
     </row>
     <row r="85">
       <c r="A85" s="15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B85" s="20">
         <v>45327.0</v>
@@ -3864,7 +3900,7 @@
     </row>
     <row r="86">
       <c r="A86" s="13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B86" s="19">
         <v>45327.0</v>
@@ -3898,7 +3934,7 @@
     </row>
     <row r="87">
       <c r="A87" s="15" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B87" s="20">
         <v>45327.0</v>
@@ -3932,7 +3968,7 @@
     </row>
     <row r="88">
       <c r="A88" s="13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B88" s="19">
         <v>45327.0</v>
@@ -3966,7 +4002,7 @@
     </row>
     <row r="89">
       <c r="A89" s="15" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B89" s="20">
         <v>45327.0</v>
@@ -4034,7 +4070,7 @@
     </row>
     <row r="91">
       <c r="A91" s="15" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B91" s="20">
         <v>45328.0</v>
@@ -4068,7 +4104,7 @@
     </row>
     <row r="92">
       <c r="A92" s="13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B92" s="19">
         <v>45328.0</v>
@@ -4102,7 +4138,7 @@
     </row>
     <row r="93">
       <c r="A93" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B93" s="20">
         <v>45328.0</v>
@@ -4136,7 +4172,7 @@
     </row>
     <row r="94">
       <c r="A94" s="13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B94" s="19">
         <v>45328.0</v>
@@ -4170,7 +4206,7 @@
     </row>
     <row r="95">
       <c r="A95" s="15" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B95" s="20">
         <v>45328.0</v>
@@ -4204,7 +4240,7 @@
     </row>
     <row r="96">
       <c r="A96" s="13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B96" s="19">
         <v>45328.0</v>
@@ -4238,7 +4274,7 @@
     </row>
     <row r="97">
       <c r="A97" s="15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B97" s="20">
         <v>45328.0</v>
@@ -4272,7 +4308,7 @@
     </row>
     <row r="98">
       <c r="A98" s="13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B98" s="19">
         <v>45328.0</v>
@@ -4306,7 +4342,7 @@
     </row>
     <row r="99">
       <c r="A99" s="15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B99" s="20">
         <v>45328.0</v>
@@ -4340,7 +4376,7 @@
     </row>
     <row r="100">
       <c r="A100" s="13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B100" s="19">
         <v>45328.0</v>
@@ -4374,7 +4410,7 @@
     </row>
     <row r="101">
       <c r="A101" s="15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B101" s="20">
         <v>45328.0</v>
@@ -4408,7 +4444,7 @@
     </row>
     <row r="102">
       <c r="A102" s="13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B102" s="19">
         <v>45328.0</v>
@@ -4442,7 +4478,7 @@
     </row>
     <row r="103">
       <c r="A103" s="15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B103" s="20">
         <v>45328.0</v>
@@ -4476,7 +4512,7 @@
     </row>
     <row r="104">
       <c r="A104" s="13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B104" s="19">
         <v>45328.0</v>
@@ -4510,7 +4546,7 @@
     </row>
     <row r="105">
       <c r="A105" s="15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B105" s="20">
         <v>45328.0</v>
@@ -4544,7 +4580,7 @@
     </row>
     <row r="106">
       <c r="A106" s="13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B106" s="19">
         <v>45328.0</v>
@@ -4578,7 +4614,7 @@
     </row>
     <row r="107">
       <c r="A107" s="15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B107" s="20">
         <v>45328.0</v>
@@ -4612,7 +4648,7 @@
     </row>
     <row r="108">
       <c r="A108" s="13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B108" s="19">
         <v>45328.0</v>
@@ -4646,7 +4682,7 @@
     </row>
     <row r="109">
       <c r="A109" s="15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B109" s="20">
         <v>45328.0</v>
@@ -4680,7 +4716,7 @@
     </row>
     <row r="110">
       <c r="A110" s="13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B110" s="19">
         <v>45328.0</v>
@@ -4714,7 +4750,7 @@
     </row>
     <row r="111">
       <c r="A111" s="15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B111" s="20">
         <v>45328.0</v>
@@ -4748,7 +4784,7 @@
     </row>
     <row r="112">
       <c r="A112" s="13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B112" s="19">
         <v>45328.0</v>
@@ -4782,7 +4818,7 @@
     </row>
     <row r="113">
       <c r="A113" s="15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B113" s="20">
         <v>45328.0</v>
@@ -4816,7 +4852,7 @@
     </row>
     <row r="114">
       <c r="A114" s="13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B114" s="19">
         <v>45328.0</v>
@@ -4850,7 +4886,7 @@
     </row>
     <row r="115">
       <c r="A115" s="15" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B115" s="20">
         <v>45328.0</v>
@@ -4884,7 +4920,7 @@
     </row>
     <row r="116">
       <c r="A116" s="13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B116" s="19">
         <v>45328.0</v>
@@ -4918,7 +4954,7 @@
     </row>
     <row r="117">
       <c r="A117" s="15" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B117" s="20">
         <v>45328.0</v>
@@ -4986,7 +5022,7 @@
     </row>
     <row r="119">
       <c r="A119" s="15" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B119" s="20">
         <v>45329.0</v>
@@ -5020,7 +5056,7 @@
     </row>
     <row r="120">
       <c r="A120" s="13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B120" s="19">
         <v>45329.0</v>
@@ -5054,7 +5090,7 @@
     </row>
     <row r="121">
       <c r="A121" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B121" s="20">
         <v>45329.0</v>
@@ -5088,7 +5124,7 @@
     </row>
     <row r="122">
       <c r="A122" s="13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B122" s="19">
         <v>45329.0</v>
@@ -5122,7 +5158,7 @@
     </row>
     <row r="123">
       <c r="A123" s="15" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B123" s="20">
         <v>45329.0</v>
@@ -5156,7 +5192,7 @@
     </row>
     <row r="124">
       <c r="A124" s="13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B124" s="19">
         <v>45329.0</v>
@@ -5190,7 +5226,7 @@
     </row>
     <row r="125">
       <c r="A125" s="15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B125" s="20">
         <v>45329.0</v>
@@ -5224,7 +5260,7 @@
     </row>
     <row r="126">
       <c r="A126" s="13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B126" s="19">
         <v>45329.0</v>
@@ -5258,7 +5294,7 @@
     </row>
     <row r="127">
       <c r="A127" s="15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B127" s="20">
         <v>45329.0</v>
@@ -5292,7 +5328,7 @@
     </row>
     <row r="128">
       <c r="A128" s="13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B128" s="19">
         <v>45329.0</v>
@@ -5326,7 +5362,7 @@
     </row>
     <row r="129">
       <c r="A129" s="15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B129" s="20">
         <v>45329.0</v>
@@ -5360,7 +5396,7 @@
     </row>
     <row r="130">
       <c r="A130" s="13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B130" s="19">
         <v>45329.0</v>
@@ -5394,7 +5430,7 @@
     </row>
     <row r="131">
       <c r="A131" s="15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B131" s="20">
         <v>45329.0</v>
@@ -5428,7 +5464,7 @@
     </row>
     <row r="132">
       <c r="A132" s="13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B132" s="19">
         <v>45329.0</v>
@@ -5462,7 +5498,7 @@
     </row>
     <row r="133">
       <c r="A133" s="15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B133" s="20">
         <v>45329.0</v>
@@ -5496,7 +5532,7 @@
     </row>
     <row r="134">
       <c r="A134" s="13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B134" s="19">
         <v>45329.0</v>
@@ -5530,7 +5566,7 @@
     </row>
     <row r="135">
       <c r="A135" s="15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B135" s="20">
         <v>45329.0</v>
@@ -5564,7 +5600,7 @@
     </row>
     <row r="136">
       <c r="A136" s="13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B136" s="19">
         <v>45329.0</v>
@@ -5598,7 +5634,7 @@
     </row>
     <row r="137">
       <c r="A137" s="15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B137" s="20">
         <v>45329.0</v>
@@ -5632,7 +5668,7 @@
     </row>
     <row r="138">
       <c r="A138" s="13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B138" s="19">
         <v>45329.0</v>
@@ -5666,7 +5702,7 @@
     </row>
     <row r="139">
       <c r="A139" s="15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B139" s="20">
         <v>45329.0</v>
@@ -5700,7 +5736,7 @@
     </row>
     <row r="140">
       <c r="A140" s="13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B140" s="19">
         <v>45329.0</v>
@@ -5734,7 +5770,7 @@
     </row>
     <row r="141">
       <c r="A141" s="15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B141" s="20">
         <v>45329.0</v>
@@ -5768,7 +5804,7 @@
     </row>
     <row r="142">
       <c r="A142" s="13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B142" s="19">
         <v>45329.0</v>
@@ -5802,7 +5838,7 @@
     </row>
     <row r="143">
       <c r="A143" s="15" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B143" s="20">
         <v>45329.0</v>
@@ -5836,7 +5872,7 @@
     </row>
     <row r="144">
       <c r="A144" s="13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B144" s="19">
         <v>45329.0</v>
@@ -5870,7 +5906,7 @@
     </row>
     <row r="145">
       <c r="A145" s="15" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B145" s="20">
         <v>45329.0</v>
@@ -5938,7 +5974,7 @@
     </row>
     <row r="147">
       <c r="A147" s="15" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B147" s="20">
         <v>45330.0</v>
@@ -5972,7 +6008,7 @@
     </row>
     <row r="148">
       <c r="A148" s="13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B148" s="19">
         <v>45330.0</v>
@@ -6006,7 +6042,7 @@
     </row>
     <row r="149">
       <c r="A149" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B149" s="20">
         <v>45330.0</v>
@@ -6040,7 +6076,7 @@
     </row>
     <row r="150">
       <c r="A150" s="13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B150" s="19">
         <v>45330.0</v>
@@ -6074,7 +6110,7 @@
     </row>
     <row r="151">
       <c r="A151" s="15" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B151" s="20">
         <v>45330.0</v>
@@ -6108,7 +6144,7 @@
     </row>
     <row r="152">
       <c r="A152" s="13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B152" s="19">
         <v>45330.0</v>
@@ -6142,7 +6178,7 @@
     </row>
     <row r="153">
       <c r="A153" s="15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B153" s="20">
         <v>45330.0</v>
@@ -6176,7 +6212,7 @@
     </row>
     <row r="154">
       <c r="A154" s="13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B154" s="19">
         <v>45330.0</v>
@@ -6210,7 +6246,7 @@
     </row>
     <row r="155">
       <c r="A155" s="15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B155" s="20">
         <v>45330.0</v>
@@ -6244,7 +6280,7 @@
     </row>
     <row r="156">
       <c r="A156" s="13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B156" s="19">
         <v>45330.0</v>
@@ -6278,7 +6314,7 @@
     </row>
     <row r="157">
       <c r="A157" s="15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B157" s="20">
         <v>45330.0</v>
@@ -6312,7 +6348,7 @@
     </row>
     <row r="158">
       <c r="A158" s="13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B158" s="19">
         <v>45330.0</v>
@@ -6346,7 +6382,7 @@
     </row>
     <row r="159">
       <c r="A159" s="15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B159" s="20">
         <v>45330.0</v>
@@ -6380,7 +6416,7 @@
     </row>
     <row r="160">
       <c r="A160" s="13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B160" s="19">
         <v>45330.0</v>
@@ -6414,7 +6450,7 @@
     </row>
     <row r="161">
       <c r="A161" s="15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B161" s="20">
         <v>45330.0</v>
@@ -6448,7 +6484,7 @@
     </row>
     <row r="162">
       <c r="A162" s="13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B162" s="19">
         <v>45330.0</v>
@@ -6482,7 +6518,7 @@
     </row>
     <row r="163">
       <c r="A163" s="15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B163" s="20">
         <v>45330.0</v>
@@ -6516,7 +6552,7 @@
     </row>
     <row r="164">
       <c r="A164" s="13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B164" s="19">
         <v>45330.0</v>
@@ -6550,7 +6586,7 @@
     </row>
     <row r="165">
       <c r="A165" s="15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B165" s="20">
         <v>45330.0</v>
@@ -6584,7 +6620,7 @@
     </row>
     <row r="166">
       <c r="A166" s="13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B166" s="19">
         <v>45330.0</v>
@@ -6618,7 +6654,7 @@
     </row>
     <row r="167">
       <c r="A167" s="15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B167" s="20">
         <v>45330.0</v>
@@ -6652,7 +6688,7 @@
     </row>
     <row r="168">
       <c r="A168" s="13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B168" s="19">
         <v>45330.0</v>
@@ -6686,7 +6722,7 @@
     </row>
     <row r="169">
       <c r="A169" s="15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B169" s="20">
         <v>45330.0</v>
@@ -6720,7 +6756,7 @@
     </row>
     <row r="170">
       <c r="A170" s="13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B170" s="19">
         <v>45330.0</v>
@@ -6754,7 +6790,7 @@
     </row>
     <row r="171">
       <c r="A171" s="15" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B171" s="20">
         <v>45330.0</v>
@@ -6788,7 +6824,7 @@
     </row>
     <row r="172">
       <c r="A172" s="13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B172" s="19">
         <v>45330.0</v>
@@ -6822,7 +6858,7 @@
     </row>
     <row r="173">
       <c r="A173" s="15" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B173" s="20">
         <v>45330.0</v>
@@ -6890,7 +6926,7 @@
     </row>
     <row r="175">
       <c r="A175" s="15" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B175" s="20">
         <v>45331.0</v>
@@ -6924,7 +6960,7 @@
     </row>
     <row r="176">
       <c r="A176" s="13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B176" s="19">
         <v>45331.0</v>
@@ -6958,7 +6994,7 @@
     </row>
     <row r="177">
       <c r="A177" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B177" s="20">
         <v>45331.0</v>
@@ -6992,7 +7028,7 @@
     </row>
     <row r="178">
       <c r="A178" s="13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B178" s="19">
         <v>45331.0</v>
@@ -7026,7 +7062,7 @@
     </row>
     <row r="179">
       <c r="A179" s="15" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B179" s="20">
         <v>45331.0</v>
@@ -7060,7 +7096,7 @@
     </row>
     <row r="180">
       <c r="A180" s="13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B180" s="19">
         <v>45331.0</v>
@@ -7094,7 +7130,7 @@
     </row>
     <row r="181">
       <c r="A181" s="15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B181" s="20">
         <v>45331.0</v>
@@ -7128,7 +7164,7 @@
     </row>
     <row r="182">
       <c r="A182" s="13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B182" s="19">
         <v>45331.0</v>
@@ -7162,7 +7198,7 @@
     </row>
     <row r="183">
       <c r="A183" s="15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B183" s="20">
         <v>45331.0</v>
@@ -7196,7 +7232,7 @@
     </row>
     <row r="184">
       <c r="A184" s="13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B184" s="19">
         <v>45331.0</v>
@@ -7230,7 +7266,7 @@
     </row>
     <row r="185">
       <c r="A185" s="15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B185" s="20">
         <v>45331.0</v>
@@ -7264,7 +7300,7 @@
     </row>
     <row r="186">
       <c r="A186" s="13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B186" s="19">
         <v>45331.0</v>
@@ -7298,7 +7334,7 @@
     </row>
     <row r="187">
       <c r="A187" s="15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B187" s="20">
         <v>45331.0</v>
@@ -7332,7 +7368,7 @@
     </row>
     <row r="188">
       <c r="A188" s="13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B188" s="19">
         <v>45331.0</v>
@@ -7366,7 +7402,7 @@
     </row>
     <row r="189">
       <c r="A189" s="15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B189" s="20">
         <v>45331.0</v>
@@ -7400,7 +7436,7 @@
     </row>
     <row r="190">
       <c r="A190" s="13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B190" s="19">
         <v>45331.0</v>
@@ -7434,7 +7470,7 @@
     </row>
     <row r="191">
       <c r="A191" s="15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B191" s="20">
         <v>45331.0</v>
@@ -7468,7 +7504,7 @@
     </row>
     <row r="192">
       <c r="A192" s="13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B192" s="19">
         <v>45331.0</v>
@@ -7502,7 +7538,7 @@
     </row>
     <row r="193">
       <c r="A193" s="15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B193" s="20">
         <v>45331.0</v>
@@ -7536,7 +7572,7 @@
     </row>
     <row r="194">
       <c r="A194" s="13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B194" s="19">
         <v>45331.0</v>
@@ -7570,7 +7606,7 @@
     </row>
     <row r="195">
       <c r="A195" s="15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B195" s="20">
         <v>45331.0</v>
@@ -7604,7 +7640,7 @@
     </row>
     <row r="196">
       <c r="A196" s="13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B196" s="19">
         <v>45331.0</v>
@@ -7638,7 +7674,7 @@
     </row>
     <row r="197">
       <c r="A197" s="15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B197" s="20">
         <v>45331.0</v>
@@ -7672,7 +7708,7 @@
     </row>
     <row r="198">
       <c r="A198" s="13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B198" s="19">
         <v>45331.0</v>
@@ -7706,7 +7742,7 @@
     </row>
     <row r="199">
       <c r="A199" s="15" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B199" s="20">
         <v>45331.0</v>
@@ -7740,7 +7776,7 @@
     </row>
     <row r="200">
       <c r="A200" s="13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B200" s="19">
         <v>45331.0</v>
@@ -7774,7 +7810,7 @@
     </row>
     <row r="201">
       <c r="A201" s="15" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B201" s="20">
         <v>45331.0</v>
@@ -7842,7 +7878,7 @@
     </row>
     <row r="203">
       <c r="A203" s="15" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B203" s="20">
         <v>45334.0</v>
@@ -7876,7 +7912,7 @@
     </row>
     <row r="204">
       <c r="A204" s="13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B204" s="19">
         <v>45334.0</v>
@@ -7910,7 +7946,7 @@
     </row>
     <row r="205">
       <c r="A205" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B205" s="20">
         <v>45334.0</v>
@@ -7944,7 +7980,7 @@
     </row>
     <row r="206">
       <c r="A206" s="13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B206" s="19">
         <v>45334.0</v>
@@ -7978,7 +8014,7 @@
     </row>
     <row r="207">
       <c r="A207" s="15" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B207" s="20">
         <v>45334.0</v>
@@ -8012,7 +8048,7 @@
     </row>
     <row r="208">
       <c r="A208" s="13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B208" s="19">
         <v>45334.0</v>
@@ -8046,7 +8082,7 @@
     </row>
     <row r="209">
       <c r="A209" s="15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B209" s="20">
         <v>45334.0</v>
@@ -8080,7 +8116,7 @@
     </row>
     <row r="210">
       <c r="A210" s="13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B210" s="19">
         <v>45334.0</v>
@@ -8114,7 +8150,7 @@
     </row>
     <row r="211">
       <c r="A211" s="15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B211" s="20">
         <v>45334.0</v>
@@ -8148,7 +8184,7 @@
     </row>
     <row r="212">
       <c r="A212" s="13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B212" s="19">
         <v>45334.0</v>
@@ -8182,7 +8218,7 @@
     </row>
     <row r="213">
       <c r="A213" s="15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B213" s="20">
         <v>45334.0</v>
@@ -8216,7 +8252,7 @@
     </row>
     <row r="214">
       <c r="A214" s="13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B214" s="19">
         <v>45334.0</v>
@@ -8250,7 +8286,7 @@
     </row>
     <row r="215">
       <c r="A215" s="15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B215" s="20">
         <v>45334.0</v>
@@ -8284,7 +8320,7 @@
     </row>
     <row r="216">
       <c r="A216" s="13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B216" s="19">
         <v>45334.0</v>
@@ -8318,7 +8354,7 @@
     </row>
     <row r="217">
       <c r="A217" s="15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B217" s="20">
         <v>45334.0</v>
@@ -8352,7 +8388,7 @@
     </row>
     <row r="218">
       <c r="A218" s="13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B218" s="19">
         <v>45334.0</v>
@@ -8386,7 +8422,7 @@
     </row>
     <row r="219">
       <c r="A219" s="15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B219" s="20">
         <v>45334.0</v>
@@ -8420,7 +8456,7 @@
     </row>
     <row r="220">
       <c r="A220" s="13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B220" s="19">
         <v>45334.0</v>
@@ -8454,7 +8490,7 @@
     </row>
     <row r="221">
       <c r="A221" s="15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B221" s="20">
         <v>45334.0</v>
@@ -8488,7 +8524,7 @@
     </row>
     <row r="222">
       <c r="A222" s="13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B222" s="19">
         <v>45334.0</v>
@@ -8522,7 +8558,7 @@
     </row>
     <row r="223">
       <c r="A223" s="15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B223" s="20">
         <v>45334.0</v>
@@ -8556,7 +8592,7 @@
     </row>
     <row r="224">
       <c r="A224" s="13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B224" s="19">
         <v>45334.0</v>
@@ -8590,7 +8626,7 @@
     </row>
     <row r="225">
       <c r="A225" s="15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B225" s="20">
         <v>45334.0</v>
@@ -8624,7 +8660,7 @@
     </row>
     <row r="226">
       <c r="A226" s="13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B226" s="19">
         <v>45334.0</v>
@@ -8658,7 +8694,7 @@
     </row>
     <row r="227">
       <c r="A227" s="15" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B227" s="20">
         <v>45334.0</v>
@@ -8692,7 +8728,7 @@
     </row>
     <row r="228">
       <c r="A228" s="13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B228" s="19">
         <v>45334.0</v>
@@ -8726,7 +8762,7 @@
     </row>
     <row r="229">
       <c r="A229" s="15" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B229" s="20">
         <v>45334.0</v>
@@ -8794,7 +8830,7 @@
     </row>
     <row r="231">
       <c r="A231" s="15" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B231" s="20">
         <v>45335.0</v>
@@ -8828,7 +8864,7 @@
     </row>
     <row r="232">
       <c r="A232" s="13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B232" s="19">
         <v>45335.0</v>
@@ -8862,7 +8898,7 @@
     </row>
     <row r="233">
       <c r="A233" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B233" s="20">
         <v>45335.0</v>
@@ -8896,7 +8932,7 @@
     </row>
     <row r="234">
       <c r="A234" s="13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B234" s="19">
         <v>45335.0</v>
@@ -8930,7 +8966,7 @@
     </row>
     <row r="235">
       <c r="A235" s="15" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B235" s="20">
         <v>45335.0</v>
@@ -8964,7 +9000,7 @@
     </row>
     <row r="236">
       <c r="A236" s="13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B236" s="19">
         <v>45335.0</v>
@@ -8998,7 +9034,7 @@
     </row>
     <row r="237">
       <c r="A237" s="15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B237" s="20">
         <v>45335.0</v>
@@ -9032,7 +9068,7 @@
     </row>
     <row r="238">
       <c r="A238" s="13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B238" s="19">
         <v>45335.0</v>
@@ -9066,7 +9102,7 @@
     </row>
     <row r="239">
       <c r="A239" s="15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B239" s="20">
         <v>45335.0</v>
@@ -9100,7 +9136,7 @@
     </row>
     <row r="240">
       <c r="A240" s="13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B240" s="19">
         <v>45335.0</v>
@@ -9134,7 +9170,7 @@
     </row>
     <row r="241">
       <c r="A241" s="15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B241" s="20">
         <v>45335.0</v>
@@ -9168,7 +9204,7 @@
     </row>
     <row r="242">
       <c r="A242" s="13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B242" s="19">
         <v>45335.0</v>
@@ -9202,7 +9238,7 @@
     </row>
     <row r="243">
       <c r="A243" s="15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B243" s="20">
         <v>45335.0</v>
@@ -9236,7 +9272,7 @@
     </row>
     <row r="244">
       <c r="A244" s="13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B244" s="19">
         <v>45335.0</v>
@@ -9270,7 +9306,7 @@
     </row>
     <row r="245">
       <c r="A245" s="15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B245" s="20">
         <v>45335.0</v>
@@ -9304,7 +9340,7 @@
     </row>
     <row r="246">
       <c r="A246" s="13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B246" s="19">
         <v>45335.0</v>
@@ -9338,7 +9374,7 @@
     </row>
     <row r="247">
       <c r="A247" s="15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B247" s="20">
         <v>45335.0</v>
@@ -9372,7 +9408,7 @@
     </row>
     <row r="248">
       <c r="A248" s="13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B248" s="19">
         <v>45335.0</v>
@@ -9406,7 +9442,7 @@
     </row>
     <row r="249">
       <c r="A249" s="15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B249" s="20">
         <v>45335.0</v>
@@ -9440,7 +9476,7 @@
     </row>
     <row r="250">
       <c r="A250" s="13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B250" s="19">
         <v>45335.0</v>
@@ -9474,7 +9510,7 @@
     </row>
     <row r="251">
       <c r="A251" s="15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B251" s="20">
         <v>45335.0</v>
@@ -9508,7 +9544,7 @@
     </row>
     <row r="252">
       <c r="A252" s="13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B252" s="19">
         <v>45335.0</v>
@@ -9542,7 +9578,7 @@
     </row>
     <row r="253">
       <c r="A253" s="15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B253" s="20">
         <v>45335.0</v>
@@ -9576,7 +9612,7 @@
     </row>
     <row r="254">
       <c r="A254" s="13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B254" s="19">
         <v>45335.0</v>
@@ -9610,7 +9646,7 @@
     </row>
     <row r="255">
       <c r="A255" s="15" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B255" s="20">
         <v>45335.0</v>
@@ -9644,7 +9680,7 @@
     </row>
     <row r="256">
       <c r="A256" s="13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B256" s="19">
         <v>45335.0</v>
@@ -9678,7 +9714,7 @@
     </row>
     <row r="257">
       <c r="A257" s="15" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B257" s="20">
         <v>45335.0</v>
@@ -9746,7 +9782,7 @@
     </row>
     <row r="259">
       <c r="A259" s="15" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B259" s="20">
         <v>45336.0</v>
@@ -9780,7 +9816,7 @@
     </row>
     <row r="260">
       <c r="A260" s="13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B260" s="19">
         <v>45336.0</v>
@@ -9814,7 +9850,7 @@
     </row>
     <row r="261">
       <c r="A261" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B261" s="20">
         <v>45336.0</v>
@@ -9848,7 +9884,7 @@
     </row>
     <row r="262">
       <c r="A262" s="13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B262" s="19">
         <v>45336.0</v>
@@ -9882,7 +9918,7 @@
     </row>
     <row r="263">
       <c r="A263" s="15" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B263" s="20">
         <v>45336.0</v>
@@ -9916,7 +9952,7 @@
     </row>
     <row r="264">
       <c r="A264" s="13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B264" s="19">
         <v>45336.0</v>
@@ -9950,7 +9986,7 @@
     </row>
     <row r="265">
       <c r="A265" s="15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B265" s="20">
         <v>45336.0</v>
@@ -9984,7 +10020,7 @@
     </row>
     <row r="266">
       <c r="A266" s="13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B266" s="19">
         <v>45336.0</v>
@@ -10018,7 +10054,7 @@
     </row>
     <row r="267">
       <c r="A267" s="15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B267" s="20">
         <v>45336.0</v>
@@ -10052,7 +10088,7 @@
     </row>
     <row r="268">
       <c r="A268" s="13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B268" s="19">
         <v>45336.0</v>
@@ -10086,7 +10122,7 @@
     </row>
     <row r="269">
       <c r="A269" s="15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B269" s="20">
         <v>45336.0</v>
@@ -10120,7 +10156,7 @@
     </row>
     <row r="270">
       <c r="A270" s="13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B270" s="19">
         <v>45336.0</v>
@@ -10154,7 +10190,7 @@
     </row>
     <row r="271">
       <c r="A271" s="15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B271" s="20">
         <v>45336.0</v>
@@ -10188,7 +10224,7 @@
     </row>
     <row r="272">
       <c r="A272" s="13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B272" s="19">
         <v>45336.0</v>
@@ -10222,7 +10258,7 @@
     </row>
     <row r="273">
       <c r="A273" s="15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B273" s="20">
         <v>45336.0</v>
@@ -10256,7 +10292,7 @@
     </row>
     <row r="274">
       <c r="A274" s="13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B274" s="19">
         <v>45336.0</v>
@@ -10290,7 +10326,7 @@
     </row>
     <row r="275">
       <c r="A275" s="15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B275" s="20">
         <v>45336.0</v>
@@ -10324,7 +10360,7 @@
     </row>
     <row r="276">
       <c r="A276" s="13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B276" s="19">
         <v>45336.0</v>
@@ -10358,7 +10394,7 @@
     </row>
     <row r="277">
       <c r="A277" s="15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B277" s="20">
         <v>45336.0</v>
@@ -10392,7 +10428,7 @@
     </row>
     <row r="278">
       <c r="A278" s="13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B278" s="19">
         <v>45336.0</v>
@@ -10426,7 +10462,7 @@
     </row>
     <row r="279">
       <c r="A279" s="15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B279" s="20">
         <v>45336.0</v>
@@ -10460,7 +10496,7 @@
     </row>
     <row r="280">
       <c r="A280" s="13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B280" s="19">
         <v>45336.0</v>
@@ -10494,7 +10530,7 @@
     </row>
     <row r="281">
       <c r="A281" s="15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B281" s="20">
         <v>45336.0</v>
@@ -10528,7 +10564,7 @@
     </row>
     <row r="282">
       <c r="A282" s="13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B282" s="19">
         <v>45336.0</v>
@@ -10562,7 +10598,7 @@
     </row>
     <row r="283">
       <c r="A283" s="15" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B283" s="20">
         <v>45336.0</v>
@@ -10596,7 +10632,7 @@
     </row>
     <row r="284">
       <c r="A284" s="13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B284" s="19">
         <v>45336.0</v>
@@ -10630,7 +10666,7 @@
     </row>
     <row r="285">
       <c r="A285" s="15" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B285" s="20">
         <v>45336.0</v>
@@ -10698,7 +10734,7 @@
     </row>
     <row r="287">
       <c r="A287" s="15" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B287" s="20">
         <v>45337.0</v>
@@ -10732,7 +10768,7 @@
     </row>
     <row r="288">
       <c r="A288" s="13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B288" s="19">
         <v>45337.0</v>
@@ -10766,7 +10802,7 @@
     </row>
     <row r="289">
       <c r="A289" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B289" s="20">
         <v>45337.0</v>
@@ -10800,7 +10836,7 @@
     </row>
     <row r="290">
       <c r="A290" s="13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B290" s="19">
         <v>45337.0</v>
@@ -10834,7 +10870,7 @@
     </row>
     <row r="291">
       <c r="A291" s="15" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B291" s="20">
         <v>45337.0</v>
@@ -10868,7 +10904,7 @@
     </row>
     <row r="292">
       <c r="A292" s="13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B292" s="19">
         <v>45337.0</v>
@@ -10902,7 +10938,7 @@
     </row>
     <row r="293">
       <c r="A293" s="15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B293" s="20">
         <v>45337.0</v>
@@ -10936,7 +10972,7 @@
     </row>
     <row r="294">
       <c r="A294" s="13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B294" s="19">
         <v>45337.0</v>
@@ -10970,7 +11006,7 @@
     </row>
     <row r="295">
       <c r="A295" s="15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B295" s="20">
         <v>45337.0</v>
@@ -11004,7 +11040,7 @@
     </row>
     <row r="296">
       <c r="A296" s="13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B296" s="19">
         <v>45337.0</v>
@@ -11038,7 +11074,7 @@
     </row>
     <row r="297">
       <c r="A297" s="15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B297" s="20">
         <v>45337.0</v>
@@ -11072,7 +11108,7 @@
     </row>
     <row r="298">
       <c r="A298" s="13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B298" s="19">
         <v>45337.0</v>
@@ -11106,7 +11142,7 @@
     </row>
     <row r="299">
       <c r="A299" s="15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B299" s="20">
         <v>45337.0</v>
@@ -11140,7 +11176,7 @@
     </row>
     <row r="300">
       <c r="A300" s="13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B300" s="19">
         <v>45337.0</v>
@@ -11174,7 +11210,7 @@
     </row>
     <row r="301">
       <c r="A301" s="15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B301" s="20">
         <v>45337.0</v>
@@ -11208,7 +11244,7 @@
     </row>
     <row r="302">
       <c r="A302" s="13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B302" s="19">
         <v>45337.0</v>
@@ -11242,7 +11278,7 @@
     </row>
     <row r="303">
       <c r="A303" s="15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B303" s="20">
         <v>45337.0</v>
@@ -11276,7 +11312,7 @@
     </row>
     <row r="304">
       <c r="A304" s="13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B304" s="19">
         <v>45337.0</v>
@@ -11310,7 +11346,7 @@
     </row>
     <row r="305">
       <c r="A305" s="15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B305" s="20">
         <v>45337.0</v>
@@ -11344,7 +11380,7 @@
     </row>
     <row r="306">
       <c r="A306" s="13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B306" s="19">
         <v>45337.0</v>
@@ -11378,7 +11414,7 @@
     </row>
     <row r="307">
       <c r="A307" s="15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B307" s="20">
         <v>45337.0</v>
@@ -11412,7 +11448,7 @@
     </row>
     <row r="308">
       <c r="A308" s="13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B308" s="19">
         <v>45337.0</v>
@@ -11446,7 +11482,7 @@
     </row>
     <row r="309">
       <c r="A309" s="15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B309" s="20">
         <v>45337.0</v>
@@ -11480,7 +11516,7 @@
     </row>
     <row r="310">
       <c r="A310" s="13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B310" s="19">
         <v>45337.0</v>
@@ -11514,7 +11550,7 @@
     </row>
     <row r="311">
       <c r="A311" s="15" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B311" s="20">
         <v>45337.0</v>
@@ -11548,7 +11584,7 @@
     </row>
     <row r="312">
       <c r="A312" s="13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B312" s="19">
         <v>45337.0</v>
@@ -11582,7 +11618,7 @@
     </row>
     <row r="313">
       <c r="A313" s="15" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B313" s="20">
         <v>45337.0</v>
@@ -11650,7 +11686,7 @@
     </row>
     <row r="315">
       <c r="A315" s="15" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B315" s="20">
         <v>45338.0</v>
@@ -11684,7 +11720,7 @@
     </row>
     <row r="316">
       <c r="A316" s="13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B316" s="19">
         <v>45338.0</v>
@@ -11718,7 +11754,7 @@
     </row>
     <row r="317">
       <c r="A317" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B317" s="20">
         <v>45338.0</v>
@@ -11752,7 +11788,7 @@
     </row>
     <row r="318">
       <c r="A318" s="13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B318" s="19">
         <v>45338.0</v>
@@ -11786,7 +11822,7 @@
     </row>
     <row r="319">
       <c r="A319" s="15" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B319" s="20">
         <v>45338.0</v>
@@ -11820,7 +11856,7 @@
     </row>
     <row r="320">
       <c r="A320" s="13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B320" s="19">
         <v>45338.0</v>
@@ -11854,7 +11890,7 @@
     </row>
     <row r="321">
       <c r="A321" s="15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B321" s="20">
         <v>45338.0</v>
@@ -11888,7 +11924,7 @@
     </row>
     <row r="322">
       <c r="A322" s="13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B322" s="19">
         <v>45338.0</v>
@@ -11922,7 +11958,7 @@
     </row>
     <row r="323">
       <c r="A323" s="15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B323" s="20">
         <v>45338.0</v>
@@ -11956,7 +11992,7 @@
     </row>
     <row r="324">
       <c r="A324" s="13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B324" s="19">
         <v>45338.0</v>
@@ -11990,7 +12026,7 @@
     </row>
     <row r="325">
       <c r="A325" s="15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B325" s="20">
         <v>45338.0</v>
@@ -12024,7 +12060,7 @@
     </row>
     <row r="326">
       <c r="A326" s="13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B326" s="19">
         <v>45338.0</v>
@@ -12058,7 +12094,7 @@
     </row>
     <row r="327">
       <c r="A327" s="15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B327" s="20">
         <v>45338.0</v>
@@ -12092,7 +12128,7 @@
     </row>
     <row r="328">
       <c r="A328" s="13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B328" s="19">
         <v>45338.0</v>
@@ -12126,7 +12162,7 @@
     </row>
     <row r="329">
       <c r="A329" s="15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B329" s="20">
         <v>45338.0</v>
@@ -12160,7 +12196,7 @@
     </row>
     <row r="330">
       <c r="A330" s="13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B330" s="19">
         <v>45338.0</v>
@@ -12194,7 +12230,7 @@
     </row>
     <row r="331">
       <c r="A331" s="15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B331" s="20">
         <v>45338.0</v>
@@ -12228,7 +12264,7 @@
     </row>
     <row r="332">
       <c r="A332" s="13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B332" s="19">
         <v>45338.0</v>
@@ -12262,7 +12298,7 @@
     </row>
     <row r="333">
       <c r="A333" s="15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B333" s="20">
         <v>45338.0</v>
@@ -12296,7 +12332,7 @@
     </row>
     <row r="334">
       <c r="A334" s="13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B334" s="19">
         <v>45338.0</v>
@@ -12330,7 +12366,7 @@
     </row>
     <row r="335">
       <c r="A335" s="15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B335" s="20">
         <v>45338.0</v>
@@ -12364,7 +12400,7 @@
     </row>
     <row r="336">
       <c r="A336" s="13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B336" s="19">
         <v>45338.0</v>
@@ -12398,7 +12434,7 @@
     </row>
     <row r="337">
       <c r="A337" s="15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B337" s="20">
         <v>45338.0</v>
@@ -12432,7 +12468,7 @@
     </row>
     <row r="338">
       <c r="A338" s="13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B338" s="19">
         <v>45338.0</v>
@@ -12466,7 +12502,7 @@
     </row>
     <row r="339">
       <c r="A339" s="15" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B339" s="20">
         <v>45338.0</v>
@@ -12500,7 +12536,7 @@
     </row>
     <row r="340">
       <c r="A340" s="13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B340" s="19">
         <v>45338.0</v>
@@ -12534,7 +12570,7 @@
     </row>
     <row r="341">
       <c r="A341" s="15" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B341" s="20">
         <v>45338.0</v>
@@ -12602,7 +12638,7 @@
     </row>
     <row r="343">
       <c r="A343" s="15" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B343" s="20">
         <v>45341.0</v>
@@ -12636,7 +12672,7 @@
     </row>
     <row r="344">
       <c r="A344" s="13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B344" s="19">
         <v>45341.0</v>
@@ -12670,7 +12706,7 @@
     </row>
     <row r="345">
       <c r="A345" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B345" s="20">
         <v>45341.0</v>
@@ -12704,7 +12740,7 @@
     </row>
     <row r="346">
       <c r="A346" s="13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B346" s="19">
         <v>45341.0</v>
@@ -12738,7 +12774,7 @@
     </row>
     <row r="347">
       <c r="A347" s="15" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B347" s="20">
         <v>45341.0</v>
@@ -12772,7 +12808,7 @@
     </row>
     <row r="348">
       <c r="A348" s="13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B348" s="19">
         <v>45341.0</v>
@@ -12806,7 +12842,7 @@
     </row>
     <row r="349">
       <c r="A349" s="15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B349" s="20">
         <v>45341.0</v>
@@ -12840,7 +12876,7 @@
     </row>
     <row r="350">
       <c r="A350" s="13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B350" s="19">
         <v>45341.0</v>
@@ -12874,7 +12910,7 @@
     </row>
     <row r="351">
       <c r="A351" s="15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B351" s="20">
         <v>45341.0</v>
@@ -12908,7 +12944,7 @@
     </row>
     <row r="352">
       <c r="A352" s="13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B352" s="19">
         <v>45341.0</v>
@@ -12942,7 +12978,7 @@
     </row>
     <row r="353">
       <c r="A353" s="15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B353" s="20">
         <v>45341.0</v>
@@ -12976,7 +13012,7 @@
     </row>
     <row r="354">
       <c r="A354" s="13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B354" s="19">
         <v>45341.0</v>
@@ -13010,7 +13046,7 @@
     </row>
     <row r="355">
       <c r="A355" s="15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B355" s="20">
         <v>45341.0</v>
@@ -13044,7 +13080,7 @@
     </row>
     <row r="356">
       <c r="A356" s="13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B356" s="19">
         <v>45341.0</v>
@@ -13078,7 +13114,7 @@
     </row>
     <row r="357">
       <c r="A357" s="15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B357" s="20">
         <v>45341.0</v>
@@ -13112,7 +13148,7 @@
     </row>
     <row r="358">
       <c r="A358" s="13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B358" s="19">
         <v>45341.0</v>
@@ -13146,7 +13182,7 @@
     </row>
     <row r="359">
       <c r="A359" s="15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B359" s="20">
         <v>45341.0</v>
@@ -13180,7 +13216,7 @@
     </row>
     <row r="360">
       <c r="A360" s="13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B360" s="19">
         <v>45341.0</v>
@@ -13214,7 +13250,7 @@
     </row>
     <row r="361">
       <c r="A361" s="15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B361" s="20">
         <v>45341.0</v>
@@ -13248,7 +13284,7 @@
     </row>
     <row r="362">
       <c r="A362" s="13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B362" s="19">
         <v>45341.0</v>
@@ -13282,7 +13318,7 @@
     </row>
     <row r="363">
       <c r="A363" s="15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B363" s="20">
         <v>45341.0</v>
@@ -13316,7 +13352,7 @@
     </row>
     <row r="364">
       <c r="A364" s="13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B364" s="19">
         <v>45341.0</v>
@@ -13350,7 +13386,7 @@
     </row>
     <row r="365">
       <c r="A365" s="15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B365" s="20">
         <v>45341.0</v>
@@ -13384,7 +13420,7 @@
     </row>
     <row r="366">
       <c r="A366" s="13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B366" s="19">
         <v>45341.0</v>
@@ -13418,7 +13454,7 @@
     </row>
     <row r="367">
       <c r="A367" s="15" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B367" s="20">
         <v>45341.0</v>
@@ -13452,7 +13488,7 @@
     </row>
     <row r="368">
       <c r="A368" s="13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B368" s="19">
         <v>45341.0</v>
@@ -13486,7 +13522,7 @@
     </row>
     <row r="369">
       <c r="A369" s="15" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B369" s="20">
         <v>45341.0</v>
@@ -13554,7 +13590,7 @@
     </row>
     <row r="371">
       <c r="A371" s="15" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B371" s="20">
         <v>45342.0</v>
@@ -13588,7 +13624,7 @@
     </row>
     <row r="372">
       <c r="A372" s="13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B372" s="19">
         <v>45342.0</v>
@@ -13622,7 +13658,7 @@
     </row>
     <row r="373">
       <c r="A373" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B373" s="20">
         <v>45342.0</v>
@@ -13656,7 +13692,7 @@
     </row>
     <row r="374">
       <c r="A374" s="13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B374" s="19">
         <v>45342.0</v>
@@ -13690,7 +13726,7 @@
     </row>
     <row r="375">
       <c r="A375" s="15" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B375" s="20">
         <v>45342.0</v>
@@ -13724,7 +13760,7 @@
     </row>
     <row r="376">
       <c r="A376" s="13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B376" s="19">
         <v>45342.0</v>
@@ -13758,7 +13794,7 @@
     </row>
     <row r="377">
       <c r="A377" s="15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B377" s="20">
         <v>45342.0</v>
@@ -13792,7 +13828,7 @@
     </row>
     <row r="378">
       <c r="A378" s="13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B378" s="19">
         <v>45342.0</v>
@@ -13826,7 +13862,7 @@
     </row>
     <row r="379">
       <c r="A379" s="15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B379" s="20">
         <v>45342.0</v>
@@ -13860,7 +13896,7 @@
     </row>
     <row r="380">
       <c r="A380" s="13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B380" s="19">
         <v>45342.0</v>
@@ -13894,7 +13930,7 @@
     </row>
     <row r="381">
       <c r="A381" s="15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B381" s="20">
         <v>45342.0</v>
@@ -13928,7 +13964,7 @@
     </row>
     <row r="382">
       <c r="A382" s="13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B382" s="19">
         <v>45342.0</v>
@@ -13962,7 +13998,7 @@
     </row>
     <row r="383">
       <c r="A383" s="15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B383" s="20">
         <v>45342.0</v>
@@ -13996,7 +14032,7 @@
     </row>
     <row r="384">
       <c r="A384" s="13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B384" s="19">
         <v>45342.0</v>
@@ -14030,7 +14066,7 @@
     </row>
     <row r="385">
       <c r="A385" s="15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B385" s="20">
         <v>45342.0</v>
@@ -14064,7 +14100,7 @@
     </row>
     <row r="386">
       <c r="A386" s="13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B386" s="19">
         <v>45342.0</v>
@@ -14098,7 +14134,7 @@
     </row>
     <row r="387">
       <c r="A387" s="15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B387" s="20">
         <v>45342.0</v>
@@ -14132,7 +14168,7 @@
     </row>
     <row r="388">
       <c r="A388" s="13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B388" s="19">
         <v>45342.0</v>
@@ -14166,7 +14202,7 @@
     </row>
     <row r="389">
       <c r="A389" s="15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B389" s="20">
         <v>45342.0</v>
@@ -14200,7 +14236,7 @@
     </row>
     <row r="390">
       <c r="A390" s="13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B390" s="19">
         <v>45342.0</v>
@@ -14234,7 +14270,7 @@
     </row>
     <row r="391">
       <c r="A391" s="15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B391" s="20">
         <v>45342.0</v>
@@ -14268,7 +14304,7 @@
     </row>
     <row r="392">
       <c r="A392" s="13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B392" s="19">
         <v>45342.0</v>
@@ -14302,7 +14338,7 @@
     </row>
     <row r="393">
       <c r="A393" s="15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B393" s="20">
         <v>45342.0</v>
@@ -14336,7 +14372,7 @@
     </row>
     <row r="394">
       <c r="A394" s="13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B394" s="19">
         <v>45342.0</v>
@@ -14370,7 +14406,7 @@
     </row>
     <row r="395">
       <c r="A395" s="15" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B395" s="20">
         <v>45342.0</v>
@@ -14404,7 +14440,7 @@
     </row>
     <row r="396">
       <c r="A396" s="13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B396" s="19">
         <v>45342.0</v>
@@ -14438,7 +14474,7 @@
     </row>
     <row r="397">
       <c r="A397" s="15" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B397" s="20">
         <v>45342.0</v>
@@ -14506,7 +14542,7 @@
     </row>
     <row r="399">
       <c r="A399" s="15" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B399" s="20">
         <v>45343.0</v>
@@ -14540,7 +14576,7 @@
     </row>
     <row r="400">
       <c r="A400" s="13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B400" s="19">
         <v>45343.0</v>
@@ -14574,7 +14610,7 @@
     </row>
     <row r="401">
       <c r="A401" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B401" s="20">
         <v>45343.0</v>
@@ -14608,7 +14644,7 @@
     </row>
     <row r="402">
       <c r="A402" s="13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B402" s="19">
         <v>45343.0</v>
@@ -14642,7 +14678,7 @@
     </row>
     <row r="403">
       <c r="A403" s="15" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B403" s="20">
         <v>45343.0</v>
@@ -14676,7 +14712,7 @@
     </row>
     <row r="404">
       <c r="A404" s="13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B404" s="19">
         <v>45343.0</v>
@@ -14710,7 +14746,7 @@
     </row>
     <row r="405">
       <c r="A405" s="15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B405" s="20">
         <v>45343.0</v>
@@ -14744,7 +14780,7 @@
     </row>
     <row r="406">
       <c r="A406" s="13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B406" s="19">
         <v>45343.0</v>
@@ -14778,7 +14814,7 @@
     </row>
     <row r="407">
       <c r="A407" s="15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B407" s="20">
         <v>45343.0</v>
@@ -14812,7 +14848,7 @@
     </row>
     <row r="408">
       <c r="A408" s="13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B408" s="19">
         <v>45343.0</v>
@@ -14846,7 +14882,7 @@
     </row>
     <row r="409">
       <c r="A409" s="15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B409" s="20">
         <v>45343.0</v>
@@ -14880,7 +14916,7 @@
     </row>
     <row r="410">
       <c r="A410" s="13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B410" s="19">
         <v>45343.0</v>
@@ -14914,7 +14950,7 @@
     </row>
     <row r="411">
       <c r="A411" s="15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B411" s="20">
         <v>45343.0</v>
@@ -14948,7 +14984,7 @@
     </row>
     <row r="412">
       <c r="A412" s="13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B412" s="19">
         <v>45343.0</v>
@@ -14982,7 +15018,7 @@
     </row>
     <row r="413">
       <c r="A413" s="15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B413" s="20">
         <v>45343.0</v>
@@ -15016,7 +15052,7 @@
     </row>
     <row r="414">
       <c r="A414" s="13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B414" s="19">
         <v>45343.0</v>
@@ -15050,7 +15086,7 @@
     </row>
     <row r="415">
       <c r="A415" s="15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B415" s="20">
         <v>45343.0</v>
@@ -15084,7 +15120,7 @@
     </row>
     <row r="416">
       <c r="A416" s="13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B416" s="19">
         <v>45343.0</v>
@@ -15118,7 +15154,7 @@
     </row>
     <row r="417">
       <c r="A417" s="15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B417" s="20">
         <v>45343.0</v>
@@ -15152,7 +15188,7 @@
     </row>
     <row r="418">
       <c r="A418" s="13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B418" s="19">
         <v>45343.0</v>
@@ -15186,7 +15222,7 @@
     </row>
     <row r="419">
       <c r="A419" s="15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B419" s="20">
         <v>45343.0</v>
@@ -15220,7 +15256,7 @@
     </row>
     <row r="420">
       <c r="A420" s="13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B420" s="19">
         <v>45343.0</v>
@@ -15254,7 +15290,7 @@
     </row>
     <row r="421">
       <c r="A421" s="15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B421" s="20">
         <v>45343.0</v>
@@ -15288,7 +15324,7 @@
     </row>
     <row r="422">
       <c r="A422" s="13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B422" s="19">
         <v>45343.0</v>
@@ -15322,7 +15358,7 @@
     </row>
     <row r="423">
       <c r="A423" s="15" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B423" s="20">
         <v>45343.0</v>
@@ -15356,7 +15392,7 @@
     </row>
     <row r="424">
       <c r="A424" s="13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B424" s="19">
         <v>45343.0</v>
@@ -15390,7 +15426,7 @@
     </row>
     <row r="425">
       <c r="A425" s="15" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B425" s="20">
         <v>45343.0</v>
@@ -15458,7 +15494,7 @@
     </row>
     <row r="427">
       <c r="A427" s="15" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B427" s="20">
         <v>45344.0</v>
@@ -15492,7 +15528,7 @@
     </row>
     <row r="428">
       <c r="A428" s="13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B428" s="19">
         <v>45344.0</v>
@@ -15526,7 +15562,7 @@
     </row>
     <row r="429">
       <c r="A429" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B429" s="20">
         <v>45344.0</v>
@@ -15560,7 +15596,7 @@
     </row>
     <row r="430">
       <c r="A430" s="13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B430" s="19">
         <v>45344.0</v>
@@ -15594,7 +15630,7 @@
     </row>
     <row r="431">
       <c r="A431" s="15" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B431" s="20">
         <v>45344.0</v>
@@ -15628,7 +15664,7 @@
     </row>
     <row r="432">
       <c r="A432" s="13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B432" s="19">
         <v>45344.0</v>
@@ -15662,7 +15698,7 @@
     </row>
     <row r="433">
       <c r="A433" s="15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B433" s="20">
         <v>45344.0</v>
@@ -15696,7 +15732,7 @@
     </row>
     <row r="434">
       <c r="A434" s="13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B434" s="19">
         <v>45344.0</v>
@@ -15730,7 +15766,7 @@
     </row>
     <row r="435">
       <c r="A435" s="15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B435" s="20">
         <v>45344.0</v>
@@ -15764,7 +15800,7 @@
     </row>
     <row r="436">
       <c r="A436" s="13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B436" s="19">
         <v>45344.0</v>
@@ -15798,7 +15834,7 @@
     </row>
     <row r="437">
       <c r="A437" s="15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B437" s="20">
         <v>45344.0</v>
@@ -15832,7 +15868,7 @@
     </row>
     <row r="438">
       <c r="A438" s="13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B438" s="19">
         <v>45344.0</v>
@@ -15866,7 +15902,7 @@
     </row>
     <row r="439">
       <c r="A439" s="15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B439" s="20">
         <v>45344.0</v>
@@ -15900,7 +15936,7 @@
     </row>
     <row r="440">
       <c r="A440" s="13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B440" s="19">
         <v>45344.0</v>
@@ -15934,7 +15970,7 @@
     </row>
     <row r="441">
       <c r="A441" s="15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B441" s="20">
         <v>45344.0</v>
@@ -15968,7 +16004,7 @@
     </row>
     <row r="442">
       <c r="A442" s="13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B442" s="19">
         <v>45344.0</v>
@@ -16002,7 +16038,7 @@
     </row>
     <row r="443">
       <c r="A443" s="15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B443" s="20">
         <v>45344.0</v>
@@ -16036,7 +16072,7 @@
     </row>
     <row r="444">
       <c r="A444" s="13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B444" s="19">
         <v>45344.0</v>
@@ -16070,7 +16106,7 @@
     </row>
     <row r="445">
       <c r="A445" s="15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B445" s="20">
         <v>45344.0</v>
@@ -16104,7 +16140,7 @@
     </row>
     <row r="446">
       <c r="A446" s="13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B446" s="19">
         <v>45344.0</v>
@@ -16138,7 +16174,7 @@
     </row>
     <row r="447">
       <c r="A447" s="15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B447" s="20">
         <v>45344.0</v>
@@ -16172,7 +16208,7 @@
     </row>
     <row r="448">
       <c r="A448" s="13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B448" s="19">
         <v>45344.0</v>
@@ -16206,7 +16242,7 @@
     </row>
     <row r="449">
       <c r="A449" s="15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B449" s="20">
         <v>45344.0</v>
@@ -16240,7 +16276,7 @@
     </row>
     <row r="450">
       <c r="A450" s="13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B450" s="19">
         <v>45344.0</v>
@@ -16274,7 +16310,7 @@
     </row>
     <row r="451">
       <c r="A451" s="15" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B451" s="20">
         <v>45344.0</v>
@@ -16308,7 +16344,7 @@
     </row>
     <row r="452">
       <c r="A452" s="13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B452" s="19">
         <v>45344.0</v>
@@ -16342,7 +16378,7 @@
     </row>
     <row r="453">
       <c r="A453" s="15" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B453" s="20">
         <v>45344.0</v>
@@ -16410,7 +16446,7 @@
     </row>
     <row r="455">
       <c r="A455" s="15" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B455" s="20">
         <v>45345.0</v>
@@ -16444,7 +16480,7 @@
     </row>
     <row r="456">
       <c r="A456" s="13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B456" s="19">
         <v>45345.0</v>
@@ -16478,7 +16514,7 @@
     </row>
     <row r="457">
       <c r="A457" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B457" s="20">
         <v>45345.0</v>
@@ -16512,7 +16548,7 @@
     </row>
     <row r="458">
       <c r="A458" s="13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B458" s="19">
         <v>45345.0</v>
@@ -16546,7 +16582,7 @@
     </row>
     <row r="459">
       <c r="A459" s="15" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B459" s="20">
         <v>45345.0</v>
@@ -16580,7 +16616,7 @@
     </row>
     <row r="460">
       <c r="A460" s="13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B460" s="19">
         <v>45345.0</v>
@@ -16614,7 +16650,7 @@
     </row>
     <row r="461">
       <c r="A461" s="15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B461" s="20">
         <v>45345.0</v>
@@ -16648,7 +16684,7 @@
     </row>
     <row r="462">
       <c r="A462" s="13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B462" s="19">
         <v>45345.0</v>
@@ -16682,7 +16718,7 @@
     </row>
     <row r="463">
       <c r="A463" s="15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B463" s="20">
         <v>45345.0</v>
@@ -16716,7 +16752,7 @@
     </row>
     <row r="464">
       <c r="A464" s="13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B464" s="19">
         <v>45345.0</v>
@@ -16750,7 +16786,7 @@
     </row>
     <row r="465">
       <c r="A465" s="15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B465" s="20">
         <v>45345.0</v>
@@ -16784,7 +16820,7 @@
     </row>
     <row r="466">
       <c r="A466" s="13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B466" s="19">
         <v>45345.0</v>
@@ -16818,7 +16854,7 @@
     </row>
     <row r="467">
       <c r="A467" s="15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B467" s="20">
         <v>45345.0</v>
@@ -16852,7 +16888,7 @@
     </row>
     <row r="468">
       <c r="A468" s="13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B468" s="19">
         <v>45345.0</v>
@@ -16886,7 +16922,7 @@
     </row>
     <row r="469">
       <c r="A469" s="15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B469" s="20">
         <v>45345.0</v>
@@ -16920,7 +16956,7 @@
     </row>
     <row r="470">
       <c r="A470" s="13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B470" s="19">
         <v>45345.0</v>
@@ -16954,7 +16990,7 @@
     </row>
     <row r="471">
       <c r="A471" s="15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B471" s="20">
         <v>45345.0</v>
@@ -16988,7 +17024,7 @@
     </row>
     <row r="472">
       <c r="A472" s="13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B472" s="19">
         <v>45345.0</v>
@@ -17022,7 +17058,7 @@
     </row>
     <row r="473">
       <c r="A473" s="15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B473" s="20">
         <v>45345.0</v>
@@ -17056,7 +17092,7 @@
     </row>
     <row r="474">
       <c r="A474" s="13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B474" s="19">
         <v>45345.0</v>
@@ -17090,7 +17126,7 @@
     </row>
     <row r="475">
       <c r="A475" s="15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B475" s="20">
         <v>45345.0</v>
@@ -17124,7 +17160,7 @@
     </row>
     <row r="476">
       <c r="A476" s="13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B476" s="19">
         <v>45345.0</v>
@@ -17158,7 +17194,7 @@
     </row>
     <row r="477">
       <c r="A477" s="15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B477" s="20">
         <v>45345.0</v>
@@ -17192,7 +17228,7 @@
     </row>
     <row r="478">
       <c r="A478" s="13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B478" s="19">
         <v>45345.0</v>
@@ -17226,7 +17262,7 @@
     </row>
     <row r="479">
       <c r="A479" s="15" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B479" s="20">
         <v>45345.0</v>
@@ -17260,7 +17296,7 @@
     </row>
     <row r="480">
       <c r="A480" s="13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B480" s="19">
         <v>45345.0</v>
@@ -17294,7 +17330,7 @@
     </row>
     <row r="481">
       <c r="A481" s="15" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B481" s="20">
         <v>45345.0</v>
@@ -17362,7 +17398,7 @@
     </row>
     <row r="483">
       <c r="A483" s="15" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B483" s="20">
         <v>45348.0</v>
@@ -17396,7 +17432,7 @@
     </row>
     <row r="484">
       <c r="A484" s="13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B484" s="19">
         <v>45348.0</v>
@@ -17430,7 +17466,7 @@
     </row>
     <row r="485">
       <c r="A485" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B485" s="20">
         <v>45348.0</v>
@@ -17464,7 +17500,7 @@
     </row>
     <row r="486">
       <c r="A486" s="13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B486" s="19">
         <v>45348.0</v>
@@ -17498,7 +17534,7 @@
     </row>
     <row r="487">
       <c r="A487" s="15" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B487" s="20">
         <v>45348.0</v>
@@ -17532,7 +17568,7 @@
     </row>
     <row r="488">
       <c r="A488" s="13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B488" s="19">
         <v>45348.0</v>
@@ -17566,7 +17602,7 @@
     </row>
     <row r="489">
       <c r="A489" s="15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B489" s="20">
         <v>45348.0</v>
@@ -17600,7 +17636,7 @@
     </row>
     <row r="490">
       <c r="A490" s="13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B490" s="19">
         <v>45348.0</v>
@@ -17634,7 +17670,7 @@
     </row>
     <row r="491">
       <c r="A491" s="15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B491" s="20">
         <v>45348.0</v>
@@ -17668,7 +17704,7 @@
     </row>
     <row r="492">
       <c r="A492" s="13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B492" s="19">
         <v>45348.0</v>
@@ -17702,7 +17738,7 @@
     </row>
     <row r="493">
       <c r="A493" s="15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B493" s="20">
         <v>45348.0</v>
@@ -17736,7 +17772,7 @@
     </row>
     <row r="494">
       <c r="A494" s="13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B494" s="19">
         <v>45348.0</v>
@@ -17770,7 +17806,7 @@
     </row>
     <row r="495">
       <c r="A495" s="15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B495" s="20">
         <v>45348.0</v>
@@ -17804,7 +17840,7 @@
     </row>
     <row r="496">
       <c r="A496" s="13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B496" s="19">
         <v>45348.0</v>
@@ -17838,7 +17874,7 @@
     </row>
     <row r="497">
       <c r="A497" s="15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B497" s="20">
         <v>45348.0</v>
@@ -17872,7 +17908,7 @@
     </row>
     <row r="498">
       <c r="A498" s="13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B498" s="19">
         <v>45348.0</v>
@@ -17906,7 +17942,7 @@
     </row>
     <row r="499">
       <c r="A499" s="15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B499" s="20">
         <v>45348.0</v>
@@ -17940,7 +17976,7 @@
     </row>
     <row r="500">
       <c r="A500" s="13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B500" s="19">
         <v>45348.0</v>
@@ -17974,7 +18010,7 @@
     </row>
     <row r="501">
       <c r="A501" s="15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B501" s="20">
         <v>45348.0</v>
@@ -18008,7 +18044,7 @@
     </row>
     <row r="502">
       <c r="A502" s="13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B502" s="19">
         <v>45348.0</v>
@@ -18042,7 +18078,7 @@
     </row>
     <row r="503">
       <c r="A503" s="15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B503" s="20">
         <v>45348.0</v>
@@ -18076,7 +18112,7 @@
     </row>
     <row r="504">
       <c r="A504" s="13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B504" s="19">
         <v>45348.0</v>
@@ -18110,7 +18146,7 @@
     </row>
     <row r="505">
       <c r="A505" s="15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B505" s="20">
         <v>45348.0</v>
@@ -18144,7 +18180,7 @@
     </row>
     <row r="506">
       <c r="A506" s="13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B506" s="19">
         <v>45348.0</v>
@@ -18178,7 +18214,7 @@
     </row>
     <row r="507">
       <c r="A507" s="15" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B507" s="20">
         <v>45348.0</v>
@@ -18212,7 +18248,7 @@
     </row>
     <row r="508">
       <c r="A508" s="13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B508" s="19">
         <v>45348.0</v>
@@ -18246,7 +18282,7 @@
     </row>
     <row r="509">
       <c r="A509" s="15" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B509" s="20">
         <v>45348.0</v>
@@ -18314,7 +18350,7 @@
     </row>
     <row r="511">
       <c r="A511" s="15" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B511" s="20">
         <v>45349.0</v>
@@ -18348,7 +18384,7 @@
     </row>
     <row r="512">
       <c r="A512" s="13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B512" s="19">
         <v>45349.0</v>
@@ -18382,7 +18418,7 @@
     </row>
     <row r="513">
       <c r="A513" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B513" s="20">
         <v>45349.0</v>
@@ -18416,7 +18452,7 @@
     </row>
     <row r="514">
       <c r="A514" s="13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B514" s="19">
         <v>45349.0</v>
@@ -18450,7 +18486,7 @@
     </row>
     <row r="515">
       <c r="A515" s="15" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B515" s="20">
         <v>45349.0</v>
@@ -18484,7 +18520,7 @@
     </row>
     <row r="516">
       <c r="A516" s="13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B516" s="19">
         <v>45349.0</v>
@@ -18518,7 +18554,7 @@
     </row>
     <row r="517">
       <c r="A517" s="15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B517" s="20">
         <v>45349.0</v>
@@ -18552,7 +18588,7 @@
     </row>
     <row r="518">
       <c r="A518" s="13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B518" s="19">
         <v>45349.0</v>
@@ -18586,7 +18622,7 @@
     </row>
     <row r="519">
       <c r="A519" s="15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B519" s="20">
         <v>45349.0</v>
@@ -18620,7 +18656,7 @@
     </row>
     <row r="520">
       <c r="A520" s="13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B520" s="19">
         <v>45349.0</v>
@@ -18654,7 +18690,7 @@
     </row>
     <row r="521">
       <c r="A521" s="15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B521" s="20">
         <v>45349.0</v>
@@ -18688,7 +18724,7 @@
     </row>
     <row r="522">
       <c r="A522" s="13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B522" s="19">
         <v>45349.0</v>
@@ -18722,7 +18758,7 @@
     </row>
     <row r="523">
       <c r="A523" s="15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B523" s="20">
         <v>45349.0</v>
@@ -18756,7 +18792,7 @@
     </row>
     <row r="524">
       <c r="A524" s="13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B524" s="19">
         <v>45349.0</v>
@@ -18790,7 +18826,7 @@
     </row>
     <row r="525">
       <c r="A525" s="15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B525" s="20">
         <v>45349.0</v>
@@ -18824,7 +18860,7 @@
     </row>
     <row r="526">
       <c r="A526" s="13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B526" s="19">
         <v>45349.0</v>
@@ -18858,7 +18894,7 @@
     </row>
     <row r="527">
       <c r="A527" s="15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B527" s="20">
         <v>45349.0</v>
@@ -18892,7 +18928,7 @@
     </row>
     <row r="528">
       <c r="A528" s="13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B528" s="19">
         <v>45349.0</v>
@@ -18926,7 +18962,7 @@
     </row>
     <row r="529">
       <c r="A529" s="15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B529" s="20">
         <v>45349.0</v>
@@ -18960,7 +18996,7 @@
     </row>
     <row r="530">
       <c r="A530" s="13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B530" s="19">
         <v>45349.0</v>
@@ -18994,7 +19030,7 @@
     </row>
     <row r="531">
       <c r="A531" s="15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B531" s="20">
         <v>45349.0</v>
@@ -19028,7 +19064,7 @@
     </row>
     <row r="532">
       <c r="A532" s="13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B532" s="19">
         <v>45349.0</v>
@@ -19062,7 +19098,7 @@
     </row>
     <row r="533">
       <c r="A533" s="15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B533" s="20">
         <v>45349.0</v>
@@ -19096,7 +19132,7 @@
     </row>
     <row r="534">
       <c r="A534" s="13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B534" s="19">
         <v>45349.0</v>
@@ -19130,7 +19166,7 @@
     </row>
     <row r="535">
       <c r="A535" s="15" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B535" s="20">
         <v>45349.0</v>
@@ -19164,7 +19200,7 @@
     </row>
     <row r="536">
       <c r="A536" s="13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B536" s="19">
         <v>45349.0</v>
@@ -19198,7 +19234,7 @@
     </row>
     <row r="537">
       <c r="A537" s="15" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B537" s="20">
         <v>45349.0</v>
@@ -19266,7 +19302,7 @@
     </row>
     <row r="539">
       <c r="A539" s="15" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B539" s="20">
         <v>45350.0</v>
@@ -19300,7 +19336,7 @@
     </row>
     <row r="540">
       <c r="A540" s="13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B540" s="19">
         <v>45350.0</v>
@@ -19334,7 +19370,7 @@
     </row>
     <row r="541">
       <c r="A541" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B541" s="20">
         <v>45350.0</v>
@@ -19368,7 +19404,7 @@
     </row>
     <row r="542">
       <c r="A542" s="13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B542" s="19">
         <v>45350.0</v>
@@ -19402,7 +19438,7 @@
     </row>
     <row r="543">
       <c r="A543" s="15" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B543" s="20">
         <v>45350.0</v>
@@ -19436,7 +19472,7 @@
     </row>
     <row r="544">
       <c r="A544" s="13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B544" s="19">
         <v>45350.0</v>
@@ -19470,7 +19506,7 @@
     </row>
     <row r="545">
       <c r="A545" s="15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B545" s="20">
         <v>45350.0</v>
@@ -19504,7 +19540,7 @@
     </row>
     <row r="546">
       <c r="A546" s="13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B546" s="19">
         <v>45350.0</v>
@@ -19538,7 +19574,7 @@
     </row>
     <row r="547">
       <c r="A547" s="15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B547" s="20">
         <v>45350.0</v>
@@ -19572,7 +19608,7 @@
     </row>
     <row r="548">
       <c r="A548" s="13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B548" s="19">
         <v>45350.0</v>
@@ -19606,7 +19642,7 @@
     </row>
     <row r="549">
       <c r="A549" s="15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B549" s="20">
         <v>45350.0</v>
@@ -19640,7 +19676,7 @@
     </row>
     <row r="550">
       <c r="A550" s="13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B550" s="19">
         <v>45350.0</v>
@@ -19674,7 +19710,7 @@
     </row>
     <row r="551">
       <c r="A551" s="15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B551" s="20">
         <v>45350.0</v>
@@ -19708,7 +19744,7 @@
     </row>
     <row r="552">
       <c r="A552" s="13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B552" s="19">
         <v>45350.0</v>
@@ -19742,7 +19778,7 @@
     </row>
     <row r="553">
       <c r="A553" s="15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B553" s="20">
         <v>45350.0</v>
@@ -19776,7 +19812,7 @@
     </row>
     <row r="554">
       <c r="A554" s="13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B554" s="19">
         <v>45350.0</v>
@@ -19810,7 +19846,7 @@
     </row>
     <row r="555">
       <c r="A555" s="15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B555" s="20">
         <v>45350.0</v>
@@ -19844,7 +19880,7 @@
     </row>
     <row r="556">
       <c r="A556" s="13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B556" s="19">
         <v>45350.0</v>
@@ -19878,7 +19914,7 @@
     </row>
     <row r="557">
       <c r="A557" s="15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B557" s="20">
         <v>45350.0</v>
@@ -19912,7 +19948,7 @@
     </row>
     <row r="558">
       <c r="A558" s="13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B558" s="19">
         <v>45350.0</v>
@@ -19946,7 +19982,7 @@
     </row>
     <row r="559">
       <c r="A559" s="15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B559" s="20">
         <v>45350.0</v>
@@ -19980,7 +20016,7 @@
     </row>
     <row r="560">
       <c r="A560" s="13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B560" s="19">
         <v>45350.0</v>
@@ -20014,7 +20050,7 @@
     </row>
     <row r="561">
       <c r="A561" s="15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B561" s="20">
         <v>45350.0</v>
@@ -20048,7 +20084,7 @@
     </row>
     <row r="562">
       <c r="A562" s="13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B562" s="19">
         <v>45350.0</v>
@@ -20082,7 +20118,7 @@
     </row>
     <row r="563">
       <c r="A563" s="15" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B563" s="20">
         <v>45350.0</v>
@@ -20116,7 +20152,7 @@
     </row>
     <row r="564">
       <c r="A564" s="13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B564" s="19">
         <v>45350.0</v>
@@ -20150,7 +20186,7 @@
     </row>
     <row r="565">
       <c r="A565" s="15" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B565" s="20">
         <v>45350.0</v>
@@ -20218,7 +20254,7 @@
     </row>
     <row r="567">
       <c r="A567" s="15" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B567" s="20">
         <v>45351.0</v>
@@ -20252,7 +20288,7 @@
     </row>
     <row r="568">
       <c r="A568" s="13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B568" s="19">
         <v>45351.0</v>
@@ -20286,7 +20322,7 @@
     </row>
     <row r="569">
       <c r="A569" s="15" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B569" s="20">
         <v>45351.0</v>
@@ -20320,7 +20356,7 @@
     </row>
     <row r="570">
       <c r="A570" s="13" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B570" s="19">
         <v>45351.0</v>
@@ -20354,7 +20390,7 @@
     </row>
     <row r="571">
       <c r="A571" s="15" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B571" s="20">
         <v>45351.0</v>
@@ -20388,7 +20424,7 @@
     </row>
     <row r="572">
       <c r="A572" s="13" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B572" s="19">
         <v>45351.0</v>
@@ -20422,7 +20458,7 @@
     </row>
     <row r="573">
       <c r="A573" s="15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B573" s="20">
         <v>45351.0</v>
@@ -20456,7 +20492,7 @@
     </row>
     <row r="574">
       <c r="A574" s="13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B574" s="19">
         <v>45351.0</v>
@@ -20490,7 +20526,7 @@
     </row>
     <row r="575">
       <c r="A575" s="15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B575" s="20">
         <v>45351.0</v>
@@ -20524,7 +20560,7 @@
     </row>
     <row r="576">
       <c r="A576" s="13" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B576" s="19">
         <v>45351.0</v>
@@ -20558,7 +20594,7 @@
     </row>
     <row r="577">
       <c r="A577" s="15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B577" s="20">
         <v>45351.0</v>
@@ -20592,7 +20628,7 @@
     </row>
     <row r="578">
       <c r="A578" s="13" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B578" s="19">
         <v>45351.0</v>
@@ -20626,7 +20662,7 @@
     </row>
     <row r="579">
       <c r="A579" s="15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B579" s="20">
         <v>45351.0</v>
@@ -20660,7 +20696,7 @@
     </row>
     <row r="580">
       <c r="A580" s="13" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B580" s="19">
         <v>45351.0</v>
@@ -20694,7 +20730,7 @@
     </row>
     <row r="581">
       <c r="A581" s="15" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B581" s="20">
         <v>45351.0</v>
@@ -20728,7 +20764,7 @@
     </row>
     <row r="582">
       <c r="A582" s="13" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B582" s="19">
         <v>45351.0</v>
@@ -20762,7 +20798,7 @@
     </row>
     <row r="583">
       <c r="A583" s="15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B583" s="20">
         <v>45351.0</v>
@@ -20796,7 +20832,7 @@
     </row>
     <row r="584">
       <c r="A584" s="13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B584" s="19">
         <v>45351.0</v>
@@ -20830,7 +20866,7 @@
     </row>
     <row r="585">
       <c r="A585" s="15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B585" s="20">
         <v>45351.0</v>
@@ -20864,7 +20900,7 @@
     </row>
     <row r="586">
       <c r="A586" s="13" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B586" s="19">
         <v>45351.0</v>
@@ -20898,7 +20934,7 @@
     </row>
     <row r="587">
       <c r="A587" s="15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B587" s="20">
         <v>45351.0</v>
@@ -20932,7 +20968,7 @@
     </row>
     <row r="588">
       <c r="A588" s="13" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B588" s="19">
         <v>45351.0</v>
@@ -20966,7 +21002,7 @@
     </row>
     <row r="589">
       <c r="A589" s="15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B589" s="20">
         <v>45351.0</v>
@@ -21000,7 +21036,7 @@
     </row>
     <row r="590">
       <c r="A590" s="13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B590" s="19">
         <v>45351.0</v>
@@ -21034,7 +21070,7 @@
     </row>
     <row r="591">
       <c r="A591" s="15" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B591" s="20">
         <v>45351.0</v>
@@ -21068,7 +21104,7 @@
     </row>
     <row r="592">
       <c r="A592" s="13" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B592" s="19">
         <v>45351.0</v>
@@ -21102,7 +21138,7 @@
     </row>
     <row r="593">
       <c r="A593" s="15" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B593" s="20">
         <v>45351.0</v>
@@ -21193,7 +21229,7 @@
       <c r="L596" s="26"/>
       <c r="M596" s="26"/>
       <c r="N596" s="26" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O596" s="26"/>
       <c r="P596" s="26"/>
@@ -21220,7 +21256,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -21261,7 +21297,7 @@
     </row>
     <row customHeight="1" ht="40" r="2">
       <c r="A2" s="29" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
@@ -21308,10 +21344,10 @@
       </c>
       <c r="E4" s="32"/>
       <c r="F4" s="32" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="G4" s="32" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="H4" s="33" t="s">
         <v>10</v>
@@ -21346,7 +21382,7 @@
         <v>45323.0</v>
       </c>
       <c r="E5" s="41" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="F5" s="36" t="s">
         <v>21</v>
@@ -21380,13 +21416,13 @@
         <v>45323.0</v>
       </c>
       <c r="C6" s="41" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="D6" s="43">
         <v>45323.0</v>
       </c>
       <c r="E6" s="41" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="F6" s="36" t="s">
         <v>21</v>
@@ -21413,53 +21449,337 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="44"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44" t="str">
-        <f>SUM(H5:H6)</f>
-      </c>
-      <c r="I7" s="44" t="str">
-        <f>SUM(I5:I6)</f>
-      </c>
-      <c r="J7" s="44" t="str">
-        <f>SUM(J5:J6)</f>
-      </c>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
+      <c r="A7" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="43">
+        <v>45323.0</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="43">
+        <v>45323.0</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="36" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H7" s="37" t="n">
+        <v>0.005833333333333333</v>
+      </c>
+      <c r="I7" s="37" t="n">
+        <v>0.0002777777777777778</v>
+      </c>
+      <c r="J7" s="37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K7" s="48"/>
+      <c r="L7" s="46" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="49"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
+      <c r="A8" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="43">
+        <v>45323.0</v>
+      </c>
+      <c r="C8" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="43">
+        <v>45323.0</v>
+      </c>
+      <c r="E8" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="36" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H8" s="37" t="n">
+        <v>0.0005555555555555556</v>
+      </c>
+      <c r="I8" s="37" t="n">
+        <v>0.0013888888888888887</v>
+      </c>
+      <c r="J8" s="37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K8" s="48"/>
+      <c r="L8" s="46" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="49"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49" t="s">
-        <v>49</v>
+      <c r="A9" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="43">
+        <v>45323.0</v>
+      </c>
+      <c r="C9" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="43">
+        <v>45323.0</v>
+      </c>
+      <c r="E9" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="F9" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="36" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H9" s="37" t="n">
+        <v>0.0061111111111111106</v>
+      </c>
+      <c r="I9" s="37" t="n">
+        <v>0.0002777777777777778</v>
+      </c>
+      <c r="J9" s="37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K9" s="48"/>
+      <c r="L9" s="46" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="43">
+        <v>45323.0</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="43">
+        <v>45323.0</v>
+      </c>
+      <c r="E10" s="41" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="36" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H10" s="37" t="n">
+        <v>0.0005555555555555556</v>
+      </c>
+      <c r="I10" s="37" t="n">
+        <v>0.0013888888888888887</v>
+      </c>
+      <c r="J10" s="37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K10" s="48"/>
+      <c r="L10" s="46" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="43">
+        <v>45323.0</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="43">
+        <v>45323.0</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="G11" s="36" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H11" s="37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I11" s="37" t="n">
+        <v>3.472777777777778</v>
+      </c>
+      <c r="J11" s="37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K11" s="48"/>
+      <c r="L11" s="46" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="42">
+        <v>45323.0</v>
+      </c>
+      <c r="C12" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="42">
+        <v>45323.0</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="34" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G12" s="34" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H12" s="35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I12" s="35" t="n">
+        <v>0.0005555555555555556</v>
+      </c>
+      <c r="J12" s="35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K12" s="47"/>
+      <c r="L12" s="45" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="42">
+        <v>45323.0</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="42">
+        <v>45323.0</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="34" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G13" s="34" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H13" s="35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I13" s="35" t="n">
+        <v>0.0019444444444444444</v>
+      </c>
+      <c r="J13" s="35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K13" s="47"/>
+      <c r="L13" s="45" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="44"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44" t="str">
+        <f>SUM(H5:H13)</f>
+      </c>
+      <c r="I14" s="44" t="str">
+        <f>SUM(I5:I13)</f>
+      </c>
+      <c r="J14" s="44" t="str">
+        <f>SUM(J5:J13)</f>
+      </c>
+      <c r="K14" s="44"/>
+      <c r="L14" s="44"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="49"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="49"/>
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="49"/>
+      <c r="L16" s="49" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -21484,7 +21804,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:P3"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -21513,22 +21833,22 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>54</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" s="0" t="s">
-        <v>52</v>
       </c>
       <c r="H1" s="0" t="s">
         <v>10</v>
@@ -21546,16 +21866,16 @@
         <v>17</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2">
@@ -21572,7 +21892,7 @@
         <v>45323.0</v>
       </c>
       <c r="E2" s="50" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>21</v>
@@ -21610,13 +21930,13 @@
         <v>45323.0</v>
       </c>
       <c r="C3" s="50" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="D3" s="2">
         <v>45323.0</v>
       </c>
       <c r="E3" s="50" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>21</v>
@@ -21645,6 +21965,318 @@
       <c r="N3" s="0"/>
       <c r="O3" s="0"/>
       <c r="P3" s="0"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="2">
+        <v>45323.0</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="2">
+        <v>45323.0</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H4" s="51" t="n">
+        <v>0.00024305555555555552</v>
+      </c>
+      <c r="I4" s="51" t="n">
+        <v>1.1574074074074073e-05</v>
+      </c>
+      <c r="J4" s="51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K4" s="0"/>
+      <c r="L4" s="52" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M4" s="0"/>
+      <c r="N4" s="0"/>
+      <c r="O4" s="0"/>
+      <c r="P4" s="0"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2">
+        <v>45323.0</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="2">
+        <v>45323.0</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H5" s="51" t="n">
+        <v>2.3148148148148147e-05</v>
+      </c>
+      <c r="I5" s="51" t="n">
+        <v>5.7870370370370366e-05</v>
+      </c>
+      <c r="J5" s="51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K5" s="0"/>
+      <c r="L5" s="52" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M5" s="0"/>
+      <c r="N5" s="0"/>
+      <c r="O5" s="0"/>
+      <c r="P5" s="0"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2">
+        <v>45323.0</v>
+      </c>
+      <c r="C6" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="2">
+        <v>45323.0</v>
+      </c>
+      <c r="E6" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H6" s="51" t="n">
+        <v>0.0002546296296296296</v>
+      </c>
+      <c r="I6" s="51" t="n">
+        <v>1.1574074074074073e-05</v>
+      </c>
+      <c r="J6" s="51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K6" s="0"/>
+      <c r="L6" s="52" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M6" s="0"/>
+      <c r="N6" s="0"/>
+      <c r="O6" s="0"/>
+      <c r="P6" s="0"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="2">
+        <v>45323.0</v>
+      </c>
+      <c r="C7" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="2">
+        <v>45323.0</v>
+      </c>
+      <c r="E7" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H7" s="51" t="n">
+        <v>2.3148148148148147e-05</v>
+      </c>
+      <c r="I7" s="51" t="n">
+        <v>5.7870370370370366e-05</v>
+      </c>
+      <c r="J7" s="51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K7" s="0"/>
+      <c r="L7" s="52" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2">
+        <v>45323.0</v>
+      </c>
+      <c r="C8" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="D8" s="2">
+        <v>45323.0</v>
+      </c>
+      <c r="E8" s="50" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H8" s="51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I8" s="51" t="n">
+        <v>0.1446990740740741</v>
+      </c>
+      <c r="J8" s="51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K8" s="0"/>
+      <c r="L8" s="52" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M8" s="0"/>
+      <c r="N8" s="0"/>
+      <c r="O8" s="0"/>
+      <c r="P8" s="0"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2">
+        <v>45323.0</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="2">
+        <v>45323.0</v>
+      </c>
+      <c r="E9" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G9" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H9" s="51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I9" s="51" t="n">
+        <v>2.3148148148148147e-05</v>
+      </c>
+      <c r="J9" s="51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K9" s="0"/>
+      <c r="L9" s="52" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M9" s="0"/>
+      <c r="N9" s="0"/>
+      <c r="O9" s="0"/>
+      <c r="P9" s="0"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="2">
+        <v>45323.0</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="2">
+        <v>45323.0</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G10" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H10" s="51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I10" s="51" t="n">
+        <v>8.101851851851852e-05</v>
+      </c>
+      <c r="J10" s="51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K10" s="0"/>
+      <c r="L10" s="52" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M10" s="0"/>
+      <c r="N10" s="0"/>
+      <c r="O10" s="0"/>
+      <c r="P10" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>

--- a/cypress/downloads/All_data_01.02.2024_-_29.02.2024.xlsx
+++ b/cypress/downloads/All_data_01.02.2024_-_29.02.2024.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="69" xml:space="preserve">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="71" xml:space="preserve">
   <si>
     <t>Casio2 GmbH Test</t>
   </si>
@@ -77,7 +77,7 @@
     <t>01:10</t>
   </si>
   <si>
-    <t>11:01</t>
+    <t>14:07</t>
   </si>
   <si>
     <t>Project A</t>
@@ -198,6 +198,12 @@
   </si>
   <si>
     <t>07:32</t>
+  </si>
+  <si>
+    <t>11:01</t>
+  </si>
+  <si>
+    <t>14:06</t>
   </si>
   <si>
     <t>Start Date</t>
@@ -1108,7 +1114,7 @@
         <v>5</v>
       </c>
       <c r="N4" s="9" t="n">
-        <v>-17621.1075</v>
+        <v>-17621.105277777777</v>
       </c>
       <c r="O4" s="9"/>
       <c r="P4" s="9"/>
@@ -1176,23 +1182,23 @@
         <v>21</v>
       </c>
       <c r="G6" s="14" t="n">
-        <v>0.02</v>
+        <v>0.02611111111111111</v>
       </c>
       <c r="H6" s="14" t="n">
-        <v>3.4786111111111113</v>
+        <v>3.4808333333333334</v>
       </c>
       <c r="I6" s="14" t="n">
         <v>0.0</v>
       </c>
       <c r="J6" s="24"/>
       <c r="K6" s="14" t="n">
-        <v>3.4786111111111113</v>
+        <v>3.4808333333333334</v>
       </c>
       <c r="L6" s="14" t="n">
         <v>1.0</v>
       </c>
       <c r="M6" s="14" t="n">
-        <v>2.4786111111111113</v>
+        <v>2.4808333333333334</v>
       </c>
       <c r="N6" s="22" t="inlineStr">
         <is>
@@ -21256,7 +21262,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -21622,7 +21628,7 @@
         <v>45323.0</v>
       </c>
       <c r="E11" s="41" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="F11" s="36" t="s">
         <v>21</v>
@@ -21649,136 +21655,216 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="B12" s="42">
+      <c r="A12" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="43">
         <v>45323.0</v>
       </c>
-      <c r="C12" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="42">
+      <c r="C12" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="43">
         <v>45323.0</v>
       </c>
-      <c r="E12" s="40" t="s">
-        <v>23</v>
-      </c>
-      <c r="F12" s="34" t="inlineStr">
+      <c r="E12" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="36" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="G12" s="34" t="inlineStr">
+      <c r="H12" s="37" t="n">
+        <v>0.005833333333333333</v>
+      </c>
+      <c r="I12" s="37" t="n">
+        <v>0.0005555555555555556</v>
+      </c>
+      <c r="J12" s="37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K12" s="48"/>
+      <c r="L12" s="46" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="H12" s="35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I12" s="35" t="n">
-        <v>0.0005555555555555556</v>
-      </c>
-      <c r="J12" s="35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K12" s="47"/>
-      <c r="L12" s="45" t="inlineStr">
+    </row>
+    <row r="13">
+      <c r="A13" s="39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="43">
+        <v>45323.0</v>
+      </c>
+      <c r="C13" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="43">
+        <v>45323.0</v>
+      </c>
+      <c r="E13" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="36" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="42">
-        <v>45323.0</v>
-      </c>
-      <c r="C13" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="42">
-        <v>45323.0</v>
-      </c>
-      <c r="E13" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="F13" s="34" t="inlineStr">
+      <c r="H13" s="37" t="n">
+        <v>0.0002777777777777778</v>
+      </c>
+      <c r="I13" s="37" t="n">
+        <v>0.0016666666666666668</v>
+      </c>
+      <c r="J13" s="37" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K13" s="48"/>
+      <c r="L13" s="46" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="G13" s="34" t="inlineStr">
+    </row>
+    <row r="14">
+      <c r="A14" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="42">
+        <v>45323.0</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="42">
+        <v>45323.0</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="34" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-      <c r="H13" s="35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="I13" s="35" t="n">
-        <v>0.0019444444444444444</v>
-      </c>
-      <c r="J13" s="35" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K13" s="47"/>
-      <c r="L13" s="45" t="inlineStr">
+      <c r="G14" s="34" t="inlineStr">
         <is>
           <t/>
         </is>
       </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="44"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="44" t="str">
-        <f>SUM(H5:H13)</f>
-      </c>
-      <c r="I14" s="44" t="str">
-        <f>SUM(I5:I13)</f>
-      </c>
-      <c r="J14" s="44" t="str">
-        <f>SUM(J5:J13)</f>
-      </c>
-      <c r="K14" s="44"/>
-      <c r="L14" s="44"/>
+      <c r="H14" s="35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I14" s="35" t="n">
+        <v>0.0005555555555555556</v>
+      </c>
+      <c r="J14" s="35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K14" s="47"/>
+      <c r="L14" s="45" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="49"/>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="49"/>
-      <c r="L15" s="49"/>
+      <c r="A15" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="42">
+        <v>45323.0</v>
+      </c>
+      <c r="C15" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="42">
+        <v>45323.0</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="34" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G15" s="34" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H15" s="35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I15" s="35" t="n">
+        <v>0.0019444444444444444</v>
+      </c>
+      <c r="J15" s="35" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K15" s="47"/>
+      <c r="L15" s="45" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="49"/>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="49"/>
-      <c r="L16" s="49" t="s">
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44" t="str">
+        <f>SUM(H5:H15)</f>
+      </c>
+      <c r="I16" s="44" t="str">
+        <f>SUM(I5:I15)</f>
+      </c>
+      <c r="J16" s="44" t="str">
+        <f>SUM(J5:J15)</f>
+      </c>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="49"/>
+      <c r="B17" s="49"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="49"/>
+      <c r="L17" s="49"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="49"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="49"/>
+      <c r="L18" s="49" t="s">
         <v>51</v>
       </c>
     </row>
@@ -21804,7 +21890,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView windowProtection="0" tabSelected="0" showWhiteSpace="0" showOutlineSymbols="0" showFormulas="0" rightToLeft="0" showZeros="1" showRuler="1" showRowColHeaders="1" showGridLines="1" defaultGridColor="1" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -21833,16 +21919,16 @@
         <v>6</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>53</v>
@@ -21866,16 +21952,16 @@
         <v>17</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2">
@@ -22156,7 +22242,7 @@
         <v>45323.0</v>
       </c>
       <c r="E8" s="50" t="s">
-        <v>20</v>
+        <v>61</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>21</v>
@@ -22188,24 +22274,22 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B9" s="2">
         <v>45323.0</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="D9" s="2">
         <v>45323.0</v>
       </c>
       <c r="E9" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>20</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
@@ -22213,7 +22297,7 @@
         </is>
       </c>
       <c r="H9" s="51" t="n">
-        <v>0.0</v>
+        <v>0.00024305555555555552</v>
       </c>
       <c r="I9" s="51" t="n">
         <v>2.3148148148148147e-05</v>
@@ -22234,24 +22318,22 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="B10" s="2">
         <v>45323.0</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D10" s="2">
         <v>45323.0</v>
       </c>
       <c r="E10" s="50" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+        <v>20</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>21</v>
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
@@ -22259,10 +22341,10 @@
         </is>
       </c>
       <c r="H10" s="51" t="n">
-        <v>0.0</v>
+        <v>1.1574074074074073e-05</v>
       </c>
       <c r="I10" s="51" t="n">
-        <v>8.101851851851852e-05</v>
+        <v>6.944444444444444e-05</v>
       </c>
       <c r="J10" s="51" t="n">
         <v>0.0</v>
@@ -22277,6 +22359,98 @@
       <c r="N10" s="0"/>
       <c r="O10" s="0"/>
       <c r="P10" s="0"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="2">
+        <v>45323.0</v>
+      </c>
+      <c r="C11" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="2">
+        <v>45323.0</v>
+      </c>
+      <c r="E11" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G11" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H11" s="51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I11" s="51" t="n">
+        <v>2.3148148148148147e-05</v>
+      </c>
+      <c r="J11" s="51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K11" s="0"/>
+      <c r="L11" s="52" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M11" s="0"/>
+      <c r="N11" s="0"/>
+      <c r="O11" s="0"/>
+      <c r="P11" s="0"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2">
+        <v>45323.0</v>
+      </c>
+      <c r="C12" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="2">
+        <v>45323.0</v>
+      </c>
+      <c r="E12" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="F12" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="G12" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="H12" s="51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I12" s="51" t="n">
+        <v>8.101851851851852e-05</v>
+      </c>
+      <c r="J12" s="51" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K12" s="0"/>
+      <c r="L12" s="52" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="M12" s="0"/>
+      <c r="N12" s="0"/>
+      <c r="O12" s="0"/>
+      <c r="P12" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="1"/>
